--- a/apps/matrix-importer/class2.xlsx
+++ b/apps/matrix-importer/class2.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan.zoleta/Projects/toll-ph/apps/matrix-importer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B7D4C7-F1B5-A44C-9AC2-C5F6E8A49FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328E6B36-6FD9-3145-93BD-3332487ACD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{4EA19FBD-5D92-6444-BD69-1DAF73CA6D21}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{4EA19FBD-5D92-6444-BD69-1DAF73CA6D21}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLEX" sheetId="1" r:id="rId1"/>
+    <sheet name="NLEX_SCTEX" sheetId="2" r:id="rId2"/>
+    <sheet name="STAR" sheetId="3" r:id="rId3"/>
+    <sheet name="SLEX_SKYWAY_MCX" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="198">
   <si>
     <t>La Paz</t>
   </si>
@@ -90,16 +93,563 @@
   </si>
   <si>
     <t> 778.00</t>
+  </si>
+  <si>
+    <t>Mindanao Avenue</t>
+  </si>
+  <si>
+    <t>Karuhatan</t>
+  </si>
+  <si>
+    <t>Valenzuela</t>
+  </si>
+  <si>
+    <t>Meycauayan</t>
+  </si>
+  <si>
+    <t>Marilao</t>
+  </si>
+  <si>
+    <t>Ciudad de Victoria</t>
+  </si>
+  <si>
+    <t>Bocaue</t>
+  </si>
+  <si>
+    <t>Tambubong</t>
+  </si>
+  <si>
+    <t>Balagtas</t>
+  </si>
+  <si>
+    <t>Tabang</t>
+  </si>
+  <si>
+    <t>Sta. Rita</t>
+  </si>
+  <si>
+    <t>Pulilan</t>
+  </si>
+  <si>
+    <t>San Simon</t>
+  </si>
+  <si>
+    <t>San Fernando</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Angeles</t>
+  </si>
+  <si>
+    <t>Dau</t>
+  </si>
+  <si>
+    <t>Sta. Ines</t>
+  </si>
+  <si>
+    <t>Dinalupihan</t>
+  </si>
+  <si>
+    <t>Floridablanca</t>
+  </si>
+  <si>
+    <t>Porac</t>
+  </si>
+  <si>
+    <t>Clark South</t>
+  </si>
+  <si>
+    <t>Mabalacat (Mabiga)</t>
+  </si>
+  <si>
+    <t>Clark North</t>
+  </si>
+  <si>
+    <t>Dolores</t>
+  </si>
+  <si>
+    <t>Bamban (New Clark City)</t>
+  </si>
+  <si>
+    <t>Concepcion</t>
+  </si>
+  <si>
+    <t>San Miguel</t>
+  </si>
+  <si>
+    <t>Tarlac</t>
+  </si>
+  <si>
+    <t>Balintawak</t>
+  </si>
+  <si>
+    <t>Tipo/Subic</t>
+  </si>
+  <si>
+    <t>Calamba</t>
+  </si>
+  <si>
+    <t>Sto. Tomas</t>
+  </si>
+  <si>
+    <t>Tanauan</t>
+  </si>
+  <si>
+    <t>Malvar</t>
+  </si>
+  <si>
+    <t>Sto. Toribio</t>
+  </si>
+  <si>
+    <t>Lipa</t>
+  </si>
+  <si>
+    <t>Ibaan</t>
+  </si>
+  <si>
+    <t>Batangas</t>
+  </si>
+  <si>
+    <t>ENTRY/EXIT POINTS</t>
+  </si>
+  <si>
+    <t>C-5</t>
+  </si>
+  <si>
+    <t>MCX</t>
+  </si>
+  <si>
+    <t>Merville</t>
+  </si>
+  <si>
+    <t>     98.00</t>
+  </si>
+  <si>
+    <t>Bicutan</t>
+  </si>
+  <si>
+    <t>    145.00</t>
+  </si>
+  <si>
+    <t>Sucat</t>
+  </si>
+  <si>
+    <t>    237.00</t>
+  </si>
+  <si>
+    <t>    168.00</t>
+  </si>
+  <si>
+    <t>     69.00</t>
+  </si>
+  <si>
+    <t>Alabang</t>
+  </si>
+  <si>
+    <t>    329.00</t>
+  </si>
+  <si>
+    <t>    138.00</t>
+  </si>
+  <si>
+    <t>Filinvest</t>
+  </si>
+  <si>
+    <t>    339.00</t>
+  </si>
+  <si>
+    <t>    247.00</t>
+  </si>
+  <si>
+    <t>    148.00</t>
+  </si>
+  <si>
+    <t>     79.00</t>
+  </si>
+  <si>
+    <t>     10.00</t>
+  </si>
+  <si>
+    <t>    410.00</t>
+  </si>
+  <si>
+    <t>    318.00</t>
+  </si>
+  <si>
+    <t>    219.00</t>
+  </si>
+  <si>
+    <t>    150.00</t>
+  </si>
+  <si>
+    <t>     81.00</t>
+  </si>
+  <si>
+    <t>     71.00</t>
+  </si>
+  <si>
+    <t>Susana Heights</t>
+  </si>
+  <si>
+    <t>    367.00</t>
+  </si>
+  <si>
+    <t>    275.00</t>
+  </si>
+  <si>
+    <t>    176.00</t>
+  </si>
+  <si>
+    <t>    107.00</t>
+  </si>
+  <si>
+    <t>     38.00</t>
+  </si>
+  <si>
+    <t>     28.00</t>
+  </si>
+  <si>
+    <t>     43.00</t>
+  </si>
+  <si>
+    <t>San Pedro</t>
+  </si>
+  <si>
+    <t>    380.00</t>
+  </si>
+  <si>
+    <t>    288.00</t>
+  </si>
+  <si>
+    <t>    189.00</t>
+  </si>
+  <si>
+    <t>    120.00</t>
+  </si>
+  <si>
+    <t>     51.00</t>
+  </si>
+  <si>
+    <t>     41.00</t>
+  </si>
+  <si>
+    <t>     56.00</t>
+  </si>
+  <si>
+    <t>     13.00</t>
+  </si>
+  <si>
+    <t>Southwoods</t>
+  </si>
+  <si>
+    <t>    413.00</t>
+  </si>
+  <si>
+    <t>    321.00</t>
+  </si>
+  <si>
+    <t>    222.00</t>
+  </si>
+  <si>
+    <t>    153.00</t>
+  </si>
+  <si>
+    <t>     84.00</t>
+  </si>
+  <si>
+    <t>     73.00</t>
+  </si>
+  <si>
+    <t>     88.00</t>
+  </si>
+  <si>
+    <t>     45.00</t>
+  </si>
+  <si>
+    <t>     32.00</t>
+  </si>
+  <si>
+    <t>Carmona</t>
+  </si>
+  <si>
+    <t>    425.00</t>
+  </si>
+  <si>
+    <t>    333.00</t>
+  </si>
+  <si>
+    <t>    234.00</t>
+  </si>
+  <si>
+    <t>    165.00</t>
+  </si>
+  <si>
+    <t>     96.00</t>
+  </si>
+  <si>
+    <t>     86.00</t>
+  </si>
+  <si>
+    <t>    101.00</t>
+  </si>
+  <si>
+    <t>     58.00</t>
+  </si>
+  <si>
+    <t>Mamplasan</t>
+  </si>
+  <si>
+    <t>    447.00</t>
+  </si>
+  <si>
+    <t>    355.00</t>
+  </si>
+  <si>
+    <t>    256.00</t>
+  </si>
+  <si>
+    <t>    187.00</t>
+  </si>
+  <si>
+    <t>    118.00</t>
+  </si>
+  <si>
+    <t>    122.00</t>
+  </si>
+  <si>
+    <t>     66.00</t>
+  </si>
+  <si>
+    <t>     34.00</t>
+  </si>
+  <si>
+    <t>     21.00</t>
+  </si>
+  <si>
+    <t>Sta. Rosa</t>
+  </si>
+  <si>
+    <t>    466.00</t>
+  </si>
+  <si>
+    <t>    374.00</t>
+  </si>
+  <si>
+    <t>    206.00</t>
+  </si>
+  <si>
+    <t>    137.00</t>
+  </si>
+  <si>
+    <t>    127.00</t>
+  </si>
+  <si>
+    <t>    141.00</t>
+  </si>
+  <si>
+    <t>     85.00</t>
+  </si>
+  <si>
+    <t>     53.00</t>
+  </si>
+  <si>
+    <t>     19.00</t>
+  </si>
+  <si>
+    <t>ABI/Greenfield</t>
+  </si>
+  <si>
+    <t>    493.00</t>
+  </si>
+  <si>
+    <t>    401.00</t>
+  </si>
+  <si>
+    <t>    302.00</t>
+  </si>
+  <si>
+    <t>    233.00</t>
+  </si>
+  <si>
+    <t>    164.00</t>
+  </si>
+  <si>
+    <t>    154.00</t>
+  </si>
+  <si>
+    <t>    169.00</t>
+  </si>
+  <si>
+    <t>    126.00</t>
+  </si>
+  <si>
+    <t>    113.00</t>
+  </si>
+  <si>
+    <t>     80.00</t>
+  </si>
+  <si>
+    <t>     68.00</t>
+  </si>
+  <si>
+    <t>     46.00</t>
+  </si>
+  <si>
+    <t>     27.00</t>
+  </si>
+  <si>
+    <t>Cabuyao</t>
+  </si>
+  <si>
+    <t>    510.00</t>
+  </si>
+  <si>
+    <t>    418.00</t>
+  </si>
+  <si>
+    <t>    319.00</t>
+  </si>
+  <si>
+    <t>    250.00</t>
+  </si>
+  <si>
+    <t>    181.00</t>
+  </si>
+  <si>
+    <t>    171.00</t>
+  </si>
+  <si>
+    <t>    186.00</t>
+  </si>
+  <si>
+    <t>    143.00</t>
+  </si>
+  <si>
+    <t>    130.00</t>
+  </si>
+  <si>
+    <t>     64.00</t>
+  </si>
+  <si>
+    <t>     17.00</t>
+  </si>
+  <si>
+    <t>Silangan</t>
+  </si>
+  <si>
+    <t>    522.00</t>
+  </si>
+  <si>
+    <t>    430.00</t>
+  </si>
+  <si>
+    <t>    331.00</t>
+  </si>
+  <si>
+    <t>    262.00</t>
+  </si>
+  <si>
+    <t>    193.00</t>
+  </si>
+  <si>
+    <t>    183.00</t>
+  </si>
+  <si>
+    <t>    198.00</t>
+  </si>
+  <si>
+    <t>    155.00</t>
+  </si>
+  <si>
+    <t>    142.00</t>
+  </si>
+  <si>
+    <t>    110.00</t>
+  </si>
+  <si>
+    <t>     97.00</t>
+  </si>
+  <si>
+    <t>     76.00</t>
+  </si>
+  <si>
+    <t>     57.00</t>
+  </si>
+  <si>
+    <t>     29.00</t>
+  </si>
+  <si>
+    <t>     12.00</t>
+  </si>
+  <si>
+    <t>    561.00</t>
+  </si>
+  <si>
+    <t>    469.00</t>
+  </si>
+  <si>
+    <t>    370.00</t>
+  </si>
+  <si>
+    <t>    301.00</t>
+  </si>
+  <si>
+    <t>    232.00</t>
+  </si>
+  <si>
+    <t>    236.00</t>
+  </si>
+  <si>
+    <t>    180.00</t>
+  </si>
+  <si>
+    <t>    136.00</t>
+  </si>
+  <si>
+    <t>    114.00</t>
+  </si>
+  <si>
+    <t>     95.00</t>
+  </si>
+  <si>
+    <t>     50.00</t>
+  </si>
+  <si>
+    <t>Buendia</t>
+  </si>
+  <si>
+    <t>Magallanes</t>
+  </si>
+  <si>
+    <t>Amorsolo</t>
+  </si>
+  <si>
+    <t>Don Bosco</t>
+  </si>
+  <si>
+    <t>NAIAX</t>
+  </si>
+  <si>
+    <t>Magallanes (Skyway)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,8 +675,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170A0477-B580-C24C-A663-77C94A36182B}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -738,4 +1289,2596 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946B9BC0-D3F5-9546-A306-F01AB88FB40B}">
+  <dimension ref="A1:AD31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>79</v>
+      </c>
+      <c r="C3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>79</v>
+      </c>
+      <c r="C4">
+        <v>79</v>
+      </c>
+      <c r="D4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>79</v>
+      </c>
+      <c r="C5">
+        <v>79</v>
+      </c>
+      <c r="D5">
+        <v>79</v>
+      </c>
+      <c r="E5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>79</v>
+      </c>
+      <c r="C6">
+        <v>79</v>
+      </c>
+      <c r="D6">
+        <v>79</v>
+      </c>
+      <c r="E6">
+        <v>79</v>
+      </c>
+      <c r="F6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <v>90</v>
+      </c>
+      <c r="D7">
+        <v>90</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>90</v>
+      </c>
+      <c r="G7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <v>99</v>
+      </c>
+      <c r="D8">
+        <v>99</v>
+      </c>
+      <c r="E8">
+        <v>99</v>
+      </c>
+      <c r="F8">
+        <v>99</v>
+      </c>
+      <c r="G8">
+        <v>99</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>104</v>
+      </c>
+      <c r="C9">
+        <v>104</v>
+      </c>
+      <c r="D9">
+        <v>104</v>
+      </c>
+      <c r="E9">
+        <v>104</v>
+      </c>
+      <c r="F9">
+        <v>104</v>
+      </c>
+      <c r="G9">
+        <v>104</v>
+      </c>
+      <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>128</v>
+      </c>
+      <c r="C10">
+        <v>128</v>
+      </c>
+      <c r="D10">
+        <v>128</v>
+      </c>
+      <c r="E10">
+        <v>128</v>
+      </c>
+      <c r="F10">
+        <v>128</v>
+      </c>
+      <c r="G10">
+        <v>128</v>
+      </c>
+      <c r="H10">
+        <v>38</v>
+      </c>
+      <c r="I10">
+        <v>29</v>
+      </c>
+      <c r="J10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>148</v>
+      </c>
+      <c r="C11">
+        <v>148</v>
+      </c>
+      <c r="D11">
+        <v>148</v>
+      </c>
+      <c r="E11">
+        <v>148</v>
+      </c>
+      <c r="F11">
+        <v>148</v>
+      </c>
+      <c r="G11">
+        <v>148</v>
+      </c>
+      <c r="H11">
+        <v>58</v>
+      </c>
+      <c r="I11">
+        <v>49</v>
+      </c>
+      <c r="J11">
+        <v>44</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>155</v>
+      </c>
+      <c r="C12">
+        <v>155</v>
+      </c>
+      <c r="D12">
+        <v>155</v>
+      </c>
+      <c r="E12">
+        <v>155</v>
+      </c>
+      <c r="F12">
+        <v>155</v>
+      </c>
+      <c r="G12">
+        <v>155</v>
+      </c>
+      <c r="H12">
+        <v>65</v>
+      </c>
+      <c r="I12">
+        <v>56</v>
+      </c>
+      <c r="J12">
+        <v>51</v>
+      </c>
+      <c r="K12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>190</v>
+      </c>
+      <c r="C13">
+        <v>190</v>
+      </c>
+      <c r="D13">
+        <v>190</v>
+      </c>
+      <c r="E13">
+        <v>190</v>
+      </c>
+      <c r="F13">
+        <v>190</v>
+      </c>
+      <c r="G13">
+        <v>190</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>91</v>
+      </c>
+      <c r="J13">
+        <v>87</v>
+      </c>
+      <c r="K13">
+        <v>62</v>
+      </c>
+      <c r="L13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>251</v>
+      </c>
+      <c r="C14">
+        <v>251</v>
+      </c>
+      <c r="D14">
+        <v>251</v>
+      </c>
+      <c r="E14">
+        <v>251</v>
+      </c>
+      <c r="F14">
+        <v>251</v>
+      </c>
+      <c r="G14">
+        <v>251</v>
+      </c>
+      <c r="H14">
+        <v>161</v>
+      </c>
+      <c r="I14">
+        <v>152</v>
+      </c>
+      <c r="J14">
+        <v>147</v>
+      </c>
+      <c r="K14">
+        <v>123</v>
+      </c>
+      <c r="L14">
+        <v>96</v>
+      </c>
+      <c r="M14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>297</v>
+      </c>
+      <c r="C15">
+        <v>297</v>
+      </c>
+      <c r="D15">
+        <v>297</v>
+      </c>
+      <c r="E15">
+        <v>297</v>
+      </c>
+      <c r="F15">
+        <v>297</v>
+      </c>
+      <c r="G15">
+        <v>297</v>
+      </c>
+      <c r="H15">
+        <v>207</v>
+      </c>
+      <c r="I15">
+        <v>198</v>
+      </c>
+      <c r="J15">
+        <v>193</v>
+      </c>
+      <c r="K15">
+        <v>169</v>
+      </c>
+      <c r="L15">
+        <v>142</v>
+      </c>
+      <c r="M15">
+        <v>107</v>
+      </c>
+      <c r="N15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>334</v>
+      </c>
+      <c r="C16">
+        <v>334</v>
+      </c>
+      <c r="D16">
+        <v>334</v>
+      </c>
+      <c r="E16">
+        <v>334</v>
+      </c>
+      <c r="F16">
+        <v>334</v>
+      </c>
+      <c r="G16">
+        <v>334</v>
+      </c>
+      <c r="H16">
+        <v>244</v>
+      </c>
+      <c r="I16">
+        <v>235</v>
+      </c>
+      <c r="J16">
+        <v>230</v>
+      </c>
+      <c r="K16">
+        <v>206</v>
+      </c>
+      <c r="L16">
+        <v>179</v>
+      </c>
+      <c r="M16">
+        <v>143</v>
+      </c>
+      <c r="N16">
+        <v>83</v>
+      </c>
+      <c r="O16">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>378</v>
+      </c>
+      <c r="C17">
+        <v>378</v>
+      </c>
+      <c r="D17">
+        <v>378</v>
+      </c>
+      <c r="E17">
+        <v>378</v>
+      </c>
+      <c r="F17">
+        <v>378</v>
+      </c>
+      <c r="G17">
+        <v>378</v>
+      </c>
+      <c r="H17">
+        <v>287</v>
+      </c>
+      <c r="I17">
+        <v>279</v>
+      </c>
+      <c r="J17">
+        <v>274</v>
+      </c>
+      <c r="K17">
+        <v>249</v>
+      </c>
+      <c r="L17">
+        <v>223</v>
+      </c>
+      <c r="M17">
+        <v>187</v>
+      </c>
+      <c r="N17">
+        <v>127</v>
+      </c>
+      <c r="O17">
+        <v>81</v>
+      </c>
+      <c r="P17">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>388</v>
+      </c>
+      <c r="C18">
+        <v>388</v>
+      </c>
+      <c r="D18">
+        <v>388</v>
+      </c>
+      <c r="E18">
+        <v>388</v>
+      </c>
+      <c r="F18">
+        <v>388</v>
+      </c>
+      <c r="G18">
+        <v>388</v>
+      </c>
+      <c r="H18">
+        <v>298</v>
+      </c>
+      <c r="I18">
+        <v>289</v>
+      </c>
+      <c r="J18">
+        <v>285</v>
+      </c>
+      <c r="K18">
+        <v>260</v>
+      </c>
+      <c r="L18">
+        <v>233</v>
+      </c>
+      <c r="M18">
+        <v>198</v>
+      </c>
+      <c r="N18">
+        <v>137</v>
+      </c>
+      <c r="O18">
+        <v>91</v>
+      </c>
+      <c r="P18">
+        <v>54</v>
+      </c>
+      <c r="Q18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>416</v>
+      </c>
+      <c r="C19">
+        <v>416</v>
+      </c>
+      <c r="D19">
+        <v>416</v>
+      </c>
+      <c r="E19">
+        <v>416</v>
+      </c>
+      <c r="F19">
+        <v>416</v>
+      </c>
+      <c r="G19">
+        <v>416</v>
+      </c>
+      <c r="H19">
+        <v>325</v>
+      </c>
+      <c r="I19">
+        <v>317</v>
+      </c>
+      <c r="J19">
+        <v>312</v>
+      </c>
+      <c r="K19">
+        <v>287</v>
+      </c>
+      <c r="L19">
+        <v>261</v>
+      </c>
+      <c r="M19">
+        <v>225</v>
+      </c>
+      <c r="N19">
+        <v>165</v>
+      </c>
+      <c r="O19">
+        <v>119</v>
+      </c>
+      <c r="P19">
+        <v>82</v>
+      </c>
+      <c r="Q19">
+        <v>38</v>
+      </c>
+      <c r="R19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>790</v>
+      </c>
+      <c r="C20">
+        <v>790</v>
+      </c>
+      <c r="D20">
+        <v>790</v>
+      </c>
+      <c r="E20">
+        <v>790</v>
+      </c>
+      <c r="F20">
+        <v>790</v>
+      </c>
+      <c r="G20">
+        <v>790</v>
+      </c>
+      <c r="H20">
+        <v>699</v>
+      </c>
+      <c r="I20">
+        <v>691</v>
+      </c>
+      <c r="J20">
+        <v>686</v>
+      </c>
+      <c r="K20">
+        <v>661</v>
+      </c>
+      <c r="L20">
+        <v>635</v>
+      </c>
+      <c r="M20">
+        <v>599</v>
+      </c>
+      <c r="N20">
+        <v>539</v>
+      </c>
+      <c r="O20">
+        <v>493</v>
+      </c>
+      <c r="P20">
+        <v>456</v>
+      </c>
+      <c r="Q20">
+        <v>412</v>
+      </c>
+      <c r="R20">
+        <v>401</v>
+      </c>
+      <c r="S20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>676</v>
+      </c>
+      <c r="C21">
+        <v>676</v>
+      </c>
+      <c r="D21">
+        <v>676</v>
+      </c>
+      <c r="E21">
+        <v>676</v>
+      </c>
+      <c r="F21">
+        <v>676</v>
+      </c>
+      <c r="G21">
+        <v>676</v>
+      </c>
+      <c r="H21">
+        <v>585</v>
+      </c>
+      <c r="I21">
+        <v>577</v>
+      </c>
+      <c r="J21">
+        <v>572</v>
+      </c>
+      <c r="K21">
+        <v>547</v>
+      </c>
+      <c r="L21">
+        <v>521</v>
+      </c>
+      <c r="M21">
+        <v>485</v>
+      </c>
+      <c r="N21">
+        <v>425</v>
+      </c>
+      <c r="O21">
+        <v>379</v>
+      </c>
+      <c r="P21">
+        <v>342</v>
+      </c>
+      <c r="Q21">
+        <v>298</v>
+      </c>
+      <c r="R21">
+        <v>287</v>
+      </c>
+      <c r="S21">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>566</v>
+      </c>
+      <c r="C22">
+        <v>566</v>
+      </c>
+      <c r="D22">
+        <v>566</v>
+      </c>
+      <c r="E22">
+        <v>566</v>
+      </c>
+      <c r="F22">
+        <v>566</v>
+      </c>
+      <c r="G22">
+        <v>566</v>
+      </c>
+      <c r="H22">
+        <v>475</v>
+      </c>
+      <c r="I22">
+        <v>467</v>
+      </c>
+      <c r="J22">
+        <v>462</v>
+      </c>
+      <c r="K22">
+        <v>437</v>
+      </c>
+      <c r="L22">
+        <v>411</v>
+      </c>
+      <c r="M22">
+        <v>375</v>
+      </c>
+      <c r="N22">
+        <v>315</v>
+      </c>
+      <c r="O22">
+        <v>269</v>
+      </c>
+      <c r="P22">
+        <v>232</v>
+      </c>
+      <c r="Q22">
+        <v>188</v>
+      </c>
+      <c r="R22">
+        <v>177</v>
+      </c>
+      <c r="S22">
+        <v>224</v>
+      </c>
+      <c r="T22">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <v>486</v>
+      </c>
+      <c r="C23">
+        <v>486</v>
+      </c>
+      <c r="D23">
+        <v>486</v>
+      </c>
+      <c r="E23">
+        <v>486</v>
+      </c>
+      <c r="F23">
+        <v>486</v>
+      </c>
+      <c r="G23">
+        <v>486</v>
+      </c>
+      <c r="H23">
+        <v>395</v>
+      </c>
+      <c r="I23">
+        <v>387</v>
+      </c>
+      <c r="J23">
+        <v>382</v>
+      </c>
+      <c r="K23">
+        <v>357</v>
+      </c>
+      <c r="L23">
+        <v>331</v>
+      </c>
+      <c r="M23">
+        <v>295</v>
+      </c>
+      <c r="N23">
+        <v>235</v>
+      </c>
+      <c r="O23">
+        <v>189</v>
+      </c>
+      <c r="P23">
+        <v>152</v>
+      </c>
+      <c r="Q23">
+        <v>108</v>
+      </c>
+      <c r="R23">
+        <v>97</v>
+      </c>
+      <c r="S23">
+        <v>304</v>
+      </c>
+      <c r="T23">
+        <v>190</v>
+      </c>
+      <c r="U23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>426</v>
+      </c>
+      <c r="C24">
+        <v>426</v>
+      </c>
+      <c r="D24">
+        <v>426</v>
+      </c>
+      <c r="E24">
+        <v>426</v>
+      </c>
+      <c r="F24">
+        <v>426</v>
+      </c>
+      <c r="G24">
+        <v>426</v>
+      </c>
+      <c r="H24">
+        <v>335</v>
+      </c>
+      <c r="I24">
+        <v>327</v>
+      </c>
+      <c r="J24">
+        <v>322</v>
+      </c>
+      <c r="K24">
+        <v>297</v>
+      </c>
+      <c r="L24">
+        <v>271</v>
+      </c>
+      <c r="M24">
+        <v>235</v>
+      </c>
+      <c r="N24">
+        <v>175</v>
+      </c>
+      <c r="O24">
+        <v>129</v>
+      </c>
+      <c r="P24">
+        <v>92</v>
+      </c>
+      <c r="Q24">
+        <v>48</v>
+      </c>
+      <c r="R24">
+        <v>37</v>
+      </c>
+      <c r="S24">
+        <v>364</v>
+      </c>
+      <c r="T24">
+        <v>250</v>
+      </c>
+      <c r="U24">
+        <v>140</v>
+      </c>
+      <c r="V24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>416</v>
+      </c>
+      <c r="C25">
+        <v>416</v>
+      </c>
+      <c r="D25">
+        <v>416</v>
+      </c>
+      <c r="E25">
+        <v>416</v>
+      </c>
+      <c r="F25">
+        <v>416</v>
+      </c>
+      <c r="G25">
+        <v>416</v>
+      </c>
+      <c r="H25">
+        <v>325</v>
+      </c>
+      <c r="I25">
+        <v>317</v>
+      </c>
+      <c r="J25">
+        <v>312</v>
+      </c>
+      <c r="K25">
+        <v>287</v>
+      </c>
+      <c r="L25">
+        <v>261</v>
+      </c>
+      <c r="M25">
+        <v>225</v>
+      </c>
+      <c r="N25">
+        <v>165</v>
+      </c>
+      <c r="O25">
+        <v>119</v>
+      </c>
+      <c r="P25">
+        <v>82</v>
+      </c>
+      <c r="Q25">
+        <v>38</v>
+      </c>
+      <c r="R25">
+        <v>27</v>
+      </c>
+      <c r="S25">
+        <v>374</v>
+      </c>
+      <c r="T25">
+        <v>260</v>
+      </c>
+      <c r="U25">
+        <v>150</v>
+      </c>
+      <c r="V25">
+        <v>70</v>
+      </c>
+      <c r="W25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>440</v>
+      </c>
+      <c r="C26">
+        <v>440</v>
+      </c>
+      <c r="D26">
+        <v>440</v>
+      </c>
+      <c r="E26">
+        <v>440</v>
+      </c>
+      <c r="F26">
+        <v>440</v>
+      </c>
+      <c r="G26">
+        <v>440</v>
+      </c>
+      <c r="H26">
+        <v>349</v>
+      </c>
+      <c r="I26">
+        <v>341</v>
+      </c>
+      <c r="J26">
+        <v>336</v>
+      </c>
+      <c r="K26">
+        <v>311</v>
+      </c>
+      <c r="L26">
+        <v>285</v>
+      </c>
+      <c r="M26">
+        <v>249</v>
+      </c>
+      <c r="N26">
+        <v>189</v>
+      </c>
+      <c r="O26">
+        <v>143</v>
+      </c>
+      <c r="P26">
+        <v>106</v>
+      </c>
+      <c r="Q26">
+        <v>62</v>
+      </c>
+      <c r="R26">
+        <v>51</v>
+      </c>
+      <c r="S26">
+        <v>398</v>
+      </c>
+      <c r="T26">
+        <v>284</v>
+      </c>
+      <c r="U26">
+        <v>174</v>
+      </c>
+      <c r="V26">
+        <v>94</v>
+      </c>
+      <c r="W26">
+        <v>34</v>
+      </c>
+      <c r="X26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27">
+        <v>449</v>
+      </c>
+      <c r="C27">
+        <v>449</v>
+      </c>
+      <c r="D27">
+        <v>449</v>
+      </c>
+      <c r="E27">
+        <v>449</v>
+      </c>
+      <c r="F27">
+        <v>449</v>
+      </c>
+      <c r="G27">
+        <v>449</v>
+      </c>
+      <c r="H27">
+        <v>358</v>
+      </c>
+      <c r="I27">
+        <v>350</v>
+      </c>
+      <c r="J27">
+        <v>345</v>
+      </c>
+      <c r="K27">
+        <v>320</v>
+      </c>
+      <c r="L27">
+        <v>294</v>
+      </c>
+      <c r="M27">
+        <v>258</v>
+      </c>
+      <c r="N27">
+        <v>198</v>
+      </c>
+      <c r="O27">
+        <v>152</v>
+      </c>
+      <c r="P27">
+        <v>115</v>
+      </c>
+      <c r="Q27">
+        <v>71</v>
+      </c>
+      <c r="R27">
+        <v>60</v>
+      </c>
+      <c r="S27">
+        <v>407</v>
+      </c>
+      <c r="T27">
+        <v>293</v>
+      </c>
+      <c r="U27">
+        <v>183</v>
+      </c>
+      <c r="V27">
+        <v>103</v>
+      </c>
+      <c r="W27">
+        <v>43</v>
+      </c>
+      <c r="X27">
+        <v>33</v>
+      </c>
+      <c r="Y27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>488</v>
+      </c>
+      <c r="C28">
+        <v>488</v>
+      </c>
+      <c r="D28">
+        <v>488</v>
+      </c>
+      <c r="E28">
+        <v>488</v>
+      </c>
+      <c r="F28">
+        <v>488</v>
+      </c>
+      <c r="G28">
+        <v>488</v>
+      </c>
+      <c r="H28">
+        <v>397</v>
+      </c>
+      <c r="I28">
+        <v>389</v>
+      </c>
+      <c r="J28">
+        <v>384</v>
+      </c>
+      <c r="K28">
+        <v>359</v>
+      </c>
+      <c r="L28">
+        <v>333</v>
+      </c>
+      <c r="M28">
+        <v>297</v>
+      </c>
+      <c r="N28">
+        <v>237</v>
+      </c>
+      <c r="O28">
+        <v>191</v>
+      </c>
+      <c r="P28">
+        <v>154</v>
+      </c>
+      <c r="Q28">
+        <v>110</v>
+      </c>
+      <c r="R28">
+        <v>99</v>
+      </c>
+      <c r="S28">
+        <v>446</v>
+      </c>
+      <c r="T28">
+        <v>332</v>
+      </c>
+      <c r="U28">
+        <v>222</v>
+      </c>
+      <c r="V28">
+        <v>142</v>
+      </c>
+      <c r="W28">
+        <v>82</v>
+      </c>
+      <c r="X28">
+        <v>72</v>
+      </c>
+      <c r="Y28">
+        <v>48</v>
+      </c>
+      <c r="Z28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>510</v>
+      </c>
+      <c r="C29">
+        <v>510</v>
+      </c>
+      <c r="D29">
+        <v>510</v>
+      </c>
+      <c r="E29">
+        <v>510</v>
+      </c>
+      <c r="F29">
+        <v>510</v>
+      </c>
+      <c r="G29">
+        <v>510</v>
+      </c>
+      <c r="H29">
+        <v>419</v>
+      </c>
+      <c r="I29">
+        <v>411</v>
+      </c>
+      <c r="J29">
+        <v>406</v>
+      </c>
+      <c r="K29">
+        <v>381</v>
+      </c>
+      <c r="L29">
+        <v>355</v>
+      </c>
+      <c r="M29">
+        <v>319</v>
+      </c>
+      <c r="N29">
+        <v>259</v>
+      </c>
+      <c r="O29">
+        <v>213</v>
+      </c>
+      <c r="P29">
+        <v>176</v>
+      </c>
+      <c r="Q29">
+        <v>132</v>
+      </c>
+      <c r="R29">
+        <v>121</v>
+      </c>
+      <c r="S29">
+        <v>468</v>
+      </c>
+      <c r="T29">
+        <v>353</v>
+      </c>
+      <c r="U29">
+        <v>244</v>
+      </c>
+      <c r="V29">
+        <v>164</v>
+      </c>
+      <c r="W29">
+        <v>104</v>
+      </c>
+      <c r="X29">
+        <v>94</v>
+      </c>
+      <c r="Y29">
+        <v>70</v>
+      </c>
+      <c r="Z29">
+        <v>61</v>
+      </c>
+      <c r="AA29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>592</v>
+      </c>
+      <c r="C30">
+        <v>592</v>
+      </c>
+      <c r="D30">
+        <v>592</v>
+      </c>
+      <c r="E30">
+        <v>592</v>
+      </c>
+      <c r="F30">
+        <v>592</v>
+      </c>
+      <c r="G30">
+        <v>592</v>
+      </c>
+      <c r="H30">
+        <v>501</v>
+      </c>
+      <c r="I30">
+        <v>493</v>
+      </c>
+      <c r="J30">
+        <v>488</v>
+      </c>
+      <c r="K30">
+        <v>463</v>
+      </c>
+      <c r="L30">
+        <v>437</v>
+      </c>
+      <c r="M30">
+        <v>401</v>
+      </c>
+      <c r="N30">
+        <v>341</v>
+      </c>
+      <c r="O30">
+        <v>295</v>
+      </c>
+      <c r="P30">
+        <v>258</v>
+      </c>
+      <c r="Q30">
+        <v>214</v>
+      </c>
+      <c r="R30">
+        <v>203</v>
+      </c>
+      <c r="S30">
+        <v>550</v>
+      </c>
+      <c r="T30">
+        <v>436</v>
+      </c>
+      <c r="U30">
+        <v>326</v>
+      </c>
+      <c r="V30">
+        <v>246</v>
+      </c>
+      <c r="W30">
+        <v>186</v>
+      </c>
+      <c r="X30">
+        <v>176</v>
+      </c>
+      <c r="Y30">
+        <v>152</v>
+      </c>
+      <c r="Z30">
+        <v>143</v>
+      </c>
+      <c r="AA30">
+        <v>104</v>
+      </c>
+      <c r="AB30">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31">
+        <v>621</v>
+      </c>
+      <c r="C31">
+        <v>621</v>
+      </c>
+      <c r="D31">
+        <v>621</v>
+      </c>
+      <c r="E31">
+        <v>621</v>
+      </c>
+      <c r="F31">
+        <v>621</v>
+      </c>
+      <c r="G31">
+        <v>621</v>
+      </c>
+      <c r="H31">
+        <v>530</v>
+      </c>
+      <c r="I31">
+        <v>522</v>
+      </c>
+      <c r="J31">
+        <v>517</v>
+      </c>
+      <c r="K31">
+        <v>492</v>
+      </c>
+      <c r="L31">
+        <v>466</v>
+      </c>
+      <c r="M31">
+        <v>430</v>
+      </c>
+      <c r="N31">
+        <v>370</v>
+      </c>
+      <c r="O31">
+        <v>324</v>
+      </c>
+      <c r="P31">
+        <v>287</v>
+      </c>
+      <c r="Q31">
+        <v>243</v>
+      </c>
+      <c r="R31">
+        <v>232</v>
+      </c>
+      <c r="S31">
+        <v>578</v>
+      </c>
+      <c r="T31">
+        <v>464</v>
+      </c>
+      <c r="U31">
+        <v>355</v>
+      </c>
+      <c r="V31">
+        <v>275</v>
+      </c>
+      <c r="W31">
+        <v>214</v>
+      </c>
+      <c r="X31">
+        <v>205</v>
+      </c>
+      <c r="Y31">
+        <v>181</v>
+      </c>
+      <c r="Z31">
+        <v>172</v>
+      </c>
+      <c r="AA31">
+        <v>133</v>
+      </c>
+      <c r="AB31">
+        <v>111</v>
+      </c>
+      <c r="AC31">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173F68B0-E834-4C4B-9EEC-B98711794196}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>88</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>116</v>
+      </c>
+      <c r="C4">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>152</v>
+      </c>
+      <c r="C5">
+        <v>89</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>173</v>
+      </c>
+      <c r="C6">
+        <v>110</v>
+      </c>
+      <c r="D6">
+        <v>85</v>
+      </c>
+      <c r="E6">
+        <v>57</v>
+      </c>
+      <c r="F6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7">
+        <v>229</v>
+      </c>
+      <c r="C7">
+        <v>166</v>
+      </c>
+      <c r="D7">
+        <v>142</v>
+      </c>
+      <c r="E7">
+        <v>113</v>
+      </c>
+      <c r="F7">
+        <v>77</v>
+      </c>
+      <c r="G7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <v>271</v>
+      </c>
+      <c r="C8">
+        <v>208</v>
+      </c>
+      <c r="D8">
+        <v>183</v>
+      </c>
+      <c r="E8">
+        <v>154</v>
+      </c>
+      <c r="F8">
+        <v>118</v>
+      </c>
+      <c r="G8">
+        <v>98</v>
+      </c>
+      <c r="H8">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2434ACF-B3FC-E74E-8884-182839C01BCF}">
+  <dimension ref="A1:V31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D10:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="21" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T1" t="s">
+        <v>153</v>
+      </c>
+      <c r="U1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M15" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16" t="s">
+        <v>118</v>
+      </c>
+      <c r="N16" t="s">
+        <v>108</v>
+      </c>
+      <c r="O16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" t="s">
+        <v>125</v>
+      </c>
+      <c r="M17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" t="s">
+        <v>126</v>
+      </c>
+      <c r="O17" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O18" t="s">
+        <v>137</v>
+      </c>
+      <c r="P18" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" t="s">
+        <v>144</v>
+      </c>
+      <c r="K19" t="s">
+        <v>145</v>
+      </c>
+      <c r="L19" t="s">
+        <v>146</v>
+      </c>
+      <c r="M19" t="s">
+        <v>147</v>
+      </c>
+      <c r="N19" t="s">
+        <v>148</v>
+      </c>
+      <c r="O19" t="s">
+        <v>149</v>
+      </c>
+      <c r="P19" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>151</v>
+      </c>
+      <c r="R19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" t="s">
+        <v>160</v>
+      </c>
+      <c r="M20" t="s">
+        <v>161</v>
+      </c>
+      <c r="N20" t="s">
+        <v>162</v>
+      </c>
+      <c r="O20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>163</v>
+      </c>
+      <c r="R20" t="s">
+        <v>108</v>
+      </c>
+      <c r="S20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" t="s">
+        <v>173</v>
+      </c>
+      <c r="N21" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" t="s">
+        <v>175</v>
+      </c>
+      <c r="P21" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>177</v>
+      </c>
+      <c r="R21" t="s">
+        <v>178</v>
+      </c>
+      <c r="S21" t="s">
+        <v>179</v>
+      </c>
+      <c r="T21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" t="s">
+        <v>183</v>
+      </c>
+      <c r="I22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J22" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="s">
+        <v>170</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>74</v>
+      </c>
+      <c r="P22" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>189</v>
+      </c>
+      <c r="R22" t="s">
+        <v>190</v>
+      </c>
+      <c r="S22" t="s">
+        <v>150</v>
+      </c>
+      <c r="T22" t="s">
+        <v>191</v>
+      </c>
+      <c r="U22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/apps/matrix-importer/class2.xlsx
+++ b/apps/matrix-importer/class2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan.zoleta/Projects/toll-ph/apps/matrix-importer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328E6B36-6FD9-3145-93BD-3332487ACD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A7E1B7-D41F-5B4F-900D-9BE5EC99925F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{4EA19FBD-5D92-6444-BD69-1DAF73CA6D21}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{4EA19FBD-5D92-6444-BD69-1DAF73CA6D21}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLEX" sheetId="1" r:id="rId1"/>
@@ -675,9 +675,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170A0477-B580-C24C-A663-77C94A36182B}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1293,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946B9BC0-D3F5-9546-A306-F01AB88FB40B}">
-  <dimension ref="A1:AD31"/>
+  <dimension ref="A1:AD67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1398,7 +1399,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>79</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -1406,10 +1407,10 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="C3">
-        <v>79</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -1417,13 +1418,13 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="C4">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="D4">
-        <v>79</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
@@ -1431,16 +1432,16 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="C5">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="D5">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="E5">
-        <v>79</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
@@ -1448,19 +1449,19 @@
         <v>22</v>
       </c>
       <c r="B6">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="C6">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="D6">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="E6">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="F6">
-        <v>79</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
@@ -1468,22 +1469,22 @@
         <v>23</v>
       </c>
       <c r="B7">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="C7">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="D7">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="F7">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="G7">
-        <v>90</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -1491,25 +1492,25 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <v>99</v>
+        <v>247</v>
       </c>
       <c r="C8">
-        <v>99</v>
+        <v>247</v>
       </c>
       <c r="D8">
-        <v>99</v>
+        <v>247</v>
       </c>
       <c r="E8">
-        <v>99</v>
+        <v>247</v>
       </c>
       <c r="F8">
-        <v>99</v>
+        <v>247</v>
       </c>
       <c r="G8">
-        <v>99</v>
+        <v>247</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -1517,28 +1518,28 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="C9">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="D9">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="E9">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="F9">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="G9">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -1546,31 +1547,31 @@
         <v>26</v>
       </c>
       <c r="B10">
-        <v>128</v>
+        <v>320</v>
       </c>
       <c r="C10">
-        <v>128</v>
+        <v>320</v>
       </c>
       <c r="D10">
-        <v>128</v>
+        <v>320</v>
       </c>
       <c r="E10">
-        <v>128</v>
+        <v>320</v>
       </c>
       <c r="F10">
-        <v>128</v>
+        <v>320</v>
       </c>
       <c r="G10">
-        <v>128</v>
+        <v>320</v>
       </c>
       <c r="H10">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="I10">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="J10">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
@@ -1578,34 +1579,34 @@
         <v>27</v>
       </c>
       <c r="B11">
-        <v>148</v>
+        <v>370</v>
       </c>
       <c r="C11">
-        <v>148</v>
+        <v>370</v>
       </c>
       <c r="D11">
-        <v>148</v>
+        <v>370</v>
       </c>
       <c r="E11">
-        <v>148</v>
+        <v>370</v>
       </c>
       <c r="F11">
-        <v>148</v>
+        <v>370</v>
       </c>
       <c r="G11">
-        <v>148</v>
+        <v>370</v>
       </c>
       <c r="H11">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="I11">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="J11">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="K11">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
@@ -1613,34 +1614,34 @@
         <v>28</v>
       </c>
       <c r="B12">
-        <v>155</v>
+        <v>387</v>
       </c>
       <c r="C12">
-        <v>155</v>
+        <v>387</v>
       </c>
       <c r="D12">
-        <v>155</v>
+        <v>387</v>
       </c>
       <c r="E12">
-        <v>155</v>
+        <v>387</v>
       </c>
       <c r="F12">
-        <v>155</v>
+        <v>387</v>
       </c>
       <c r="G12">
-        <v>155</v>
+        <v>387</v>
       </c>
       <c r="H12">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="I12">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="J12">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="K12">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
@@ -1648,37 +1649,37 @@
         <v>29</v>
       </c>
       <c r="B13">
-        <v>190</v>
+        <v>476</v>
       </c>
       <c r="C13">
-        <v>190</v>
+        <v>476</v>
       </c>
       <c r="D13">
-        <v>190</v>
+        <v>476</v>
       </c>
       <c r="E13">
-        <v>190</v>
+        <v>476</v>
       </c>
       <c r="F13">
-        <v>190</v>
+        <v>476</v>
       </c>
       <c r="G13">
-        <v>190</v>
+        <v>476</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I13">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="J13">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K13">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
@@ -1686,40 +1687,40 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>251</v>
+        <v>627</v>
       </c>
       <c r="C14">
-        <v>251</v>
+        <v>627</v>
       </c>
       <c r="D14">
-        <v>251</v>
+        <v>627</v>
       </c>
       <c r="E14">
-        <v>251</v>
+        <v>627</v>
       </c>
       <c r="F14">
-        <v>251</v>
+        <v>627</v>
       </c>
       <c r="G14">
-        <v>251</v>
+        <v>627</v>
       </c>
       <c r="H14">
-        <v>161</v>
+        <v>402</v>
       </c>
       <c r="I14">
-        <v>152</v>
+        <v>380</v>
       </c>
       <c r="J14">
-        <v>147</v>
+        <v>368</v>
       </c>
       <c r="K14">
-        <v>123</v>
+        <v>307</v>
       </c>
       <c r="L14">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="M14">
-        <v>61</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
@@ -1727,43 +1728,43 @@
         <v>31</v>
       </c>
       <c r="B15">
-        <v>297</v>
+        <v>743</v>
       </c>
       <c r="C15">
-        <v>297</v>
+        <v>743</v>
       </c>
       <c r="D15">
-        <v>297</v>
+        <v>743</v>
       </c>
       <c r="E15">
-        <v>297</v>
+        <v>743</v>
       </c>
       <c r="F15">
-        <v>297</v>
+        <v>743</v>
       </c>
       <c r="G15">
-        <v>297</v>
+        <v>743</v>
       </c>
       <c r="H15">
-        <v>207</v>
+        <v>517</v>
       </c>
       <c r="I15">
-        <v>198</v>
+        <v>495</v>
       </c>
       <c r="J15">
-        <v>193</v>
+        <v>483</v>
       </c>
       <c r="K15">
-        <v>169</v>
+        <v>422</v>
       </c>
       <c r="L15">
-        <v>142</v>
+        <v>355</v>
       </c>
       <c r="M15">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c r="N15">
-        <v>46</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
@@ -1771,46 +1772,46 @@
         <v>32</v>
       </c>
       <c r="B16">
-        <v>334</v>
+        <v>834</v>
       </c>
       <c r="C16">
-        <v>334</v>
+        <v>834</v>
       </c>
       <c r="D16">
-        <v>334</v>
+        <v>834</v>
       </c>
       <c r="E16">
-        <v>334</v>
+        <v>834</v>
       </c>
       <c r="F16">
-        <v>334</v>
+        <v>834</v>
       </c>
       <c r="G16">
-        <v>334</v>
+        <v>834</v>
       </c>
       <c r="H16">
-        <v>244</v>
+        <v>609</v>
       </c>
       <c r="I16">
-        <v>235</v>
+        <v>587</v>
       </c>
       <c r="J16">
-        <v>230</v>
+        <v>575</v>
       </c>
       <c r="K16">
-        <v>206</v>
+        <v>514</v>
       </c>
       <c r="L16">
-        <v>179</v>
+        <v>447</v>
       </c>
       <c r="M16">
-        <v>143</v>
+        <v>358</v>
       </c>
       <c r="N16">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="O16">
-        <v>37</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
@@ -1818,49 +1819,49 @@
         <v>33</v>
       </c>
       <c r="B17">
-        <v>378</v>
+        <v>944</v>
       </c>
       <c r="C17">
-        <v>378</v>
+        <v>944</v>
       </c>
       <c r="D17">
-        <v>378</v>
+        <v>944</v>
       </c>
       <c r="E17">
-        <v>378</v>
+        <v>944</v>
       </c>
       <c r="F17">
-        <v>378</v>
+        <v>944</v>
       </c>
       <c r="G17">
-        <v>378</v>
+        <v>944</v>
       </c>
       <c r="H17">
-        <v>287</v>
+        <v>718</v>
       </c>
       <c r="I17">
-        <v>279</v>
+        <v>696</v>
       </c>
       <c r="J17">
-        <v>274</v>
+        <v>685</v>
       </c>
       <c r="K17">
-        <v>249</v>
+        <v>623</v>
       </c>
       <c r="L17">
-        <v>223</v>
+        <v>557</v>
       </c>
       <c r="M17">
-        <v>187</v>
+        <v>468</v>
       </c>
       <c r="N17">
-        <v>127</v>
+        <v>317</v>
       </c>
       <c r="O17">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="P17">
-        <v>44</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
@@ -1868,982 +1869,1117 @@
         <v>34</v>
       </c>
       <c r="B18">
-        <v>388</v>
+        <v>970</v>
       </c>
       <c r="C18">
-        <v>388</v>
+        <v>970</v>
       </c>
       <c r="D18">
-        <v>388</v>
+        <v>970</v>
       </c>
       <c r="E18">
-        <v>388</v>
+        <v>970</v>
       </c>
       <c r="F18">
-        <v>388</v>
+        <v>970</v>
       </c>
       <c r="G18">
-        <v>388</v>
+        <v>970</v>
       </c>
       <c r="H18">
-        <v>298</v>
+        <v>745</v>
       </c>
       <c r="I18">
-        <v>289</v>
+        <v>723</v>
       </c>
       <c r="J18">
-        <v>285</v>
+        <v>711</v>
       </c>
       <c r="K18">
-        <v>260</v>
+        <v>650</v>
       </c>
       <c r="L18">
-        <v>233</v>
+        <v>583</v>
       </c>
       <c r="M18">
-        <v>198</v>
+        <v>494</v>
       </c>
       <c r="N18">
-        <v>137</v>
+        <v>343</v>
       </c>
       <c r="O18">
-        <v>91</v>
+        <v>228</v>
       </c>
       <c r="P18">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="B19">
-        <v>416</v>
-      </c>
-      <c r="C19">
-        <v>416</v>
-      </c>
-      <c r="D19">
-        <v>416</v>
-      </c>
-      <c r="E19">
-        <v>416</v>
-      </c>
-      <c r="F19">
-        <v>416</v>
-      </c>
-      <c r="G19">
-        <v>416</v>
+      <c r="B19" s="2">
+        <v>1039</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1039</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1039</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1039</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1039</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1039</v>
       </c>
       <c r="H19">
-        <v>325</v>
+        <v>814</v>
       </c>
       <c r="I19">
-        <v>317</v>
+        <v>792</v>
       </c>
       <c r="J19">
-        <v>312</v>
+        <v>780</v>
       </c>
       <c r="K19">
-        <v>287</v>
+        <v>719</v>
       </c>
       <c r="L19">
-        <v>261</v>
+        <v>652</v>
       </c>
       <c r="M19">
-        <v>225</v>
+        <v>563</v>
       </c>
       <c r="N19">
-        <v>165</v>
+        <v>412</v>
       </c>
       <c r="O19">
-        <v>119</v>
+        <v>297</v>
       </c>
       <c r="P19">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="Q19">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="R19">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="B20">
-        <v>790</v>
-      </c>
-      <c r="C20">
-        <v>790</v>
-      </c>
-      <c r="D20">
-        <v>790</v>
-      </c>
-      <c r="E20">
-        <v>790</v>
-      </c>
-      <c r="F20">
-        <v>790</v>
-      </c>
-      <c r="G20">
-        <v>790</v>
-      </c>
-      <c r="H20">
-        <v>699</v>
-      </c>
-      <c r="I20">
-        <v>691</v>
-      </c>
-      <c r="J20">
-        <v>686</v>
-      </c>
-      <c r="K20">
-        <v>661</v>
-      </c>
-      <c r="L20">
-        <v>635</v>
-      </c>
-      <c r="M20">
-        <v>599</v>
-      </c>
-      <c r="N20">
-        <v>539</v>
-      </c>
-      <c r="O20">
-        <v>493</v>
+      <c r="B20" s="2">
+        <v>1810</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1810</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1810</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1810</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1810</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1810</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1585</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1563</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1551</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1490</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1423</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1334</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1183</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1068</v>
       </c>
       <c r="P20">
-        <v>456</v>
+        <v>976</v>
       </c>
       <c r="Q20">
-        <v>412</v>
+        <v>866</v>
       </c>
       <c r="R20">
-        <v>401</v>
+        <v>840</v>
       </c>
       <c r="S20">
-        <v>44</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="B21">
-        <v>676</v>
-      </c>
-      <c r="C21">
-        <v>676</v>
-      </c>
-      <c r="D21">
-        <v>676</v>
-      </c>
-      <c r="E21">
-        <v>676</v>
-      </c>
-      <c r="F21">
-        <v>676</v>
-      </c>
-      <c r="G21">
-        <v>676</v>
-      </c>
-      <c r="H21">
-        <v>585</v>
-      </c>
-      <c r="I21">
-        <v>577</v>
-      </c>
-      <c r="J21">
-        <v>572</v>
-      </c>
-      <c r="K21">
-        <v>547</v>
-      </c>
-      <c r="L21">
-        <v>521</v>
-      </c>
-      <c r="M21">
-        <v>485</v>
+      <c r="B21" s="2">
+        <v>1558</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1558</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1558</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1558</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1558</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1558</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1333</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1311</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1299</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1238</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1171</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1082</v>
       </c>
       <c r="N21">
-        <v>425</v>
+        <v>931</v>
       </c>
       <c r="O21">
-        <v>379</v>
+        <v>816</v>
       </c>
       <c r="P21">
-        <v>342</v>
+        <v>724</v>
       </c>
       <c r="Q21">
-        <v>298</v>
+        <v>614</v>
       </c>
       <c r="R21">
-        <v>287</v>
+        <v>588</v>
       </c>
       <c r="S21">
-        <v>114</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B22">
-        <v>566</v>
-      </c>
-      <c r="C22">
-        <v>566</v>
-      </c>
-      <c r="D22">
-        <v>566</v>
-      </c>
-      <c r="E22">
-        <v>566</v>
-      </c>
-      <c r="F22">
-        <v>566</v>
-      </c>
-      <c r="G22">
-        <v>566</v>
-      </c>
-      <c r="H22">
-        <v>475</v>
-      </c>
-      <c r="I22">
-        <v>467</v>
-      </c>
-      <c r="J22">
-        <v>462</v>
-      </c>
-      <c r="K22">
-        <v>437</v>
+      <c r="B22" s="2">
+        <v>1339</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1339</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1339</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1339</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1339</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1339</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1114</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1092</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1080</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1019</v>
       </c>
       <c r="L22">
-        <v>411</v>
+        <v>952</v>
       </c>
       <c r="M22">
-        <v>375</v>
+        <v>863</v>
       </c>
       <c r="N22">
-        <v>315</v>
+        <v>712</v>
       </c>
       <c r="O22">
-        <v>269</v>
+        <v>597</v>
       </c>
       <c r="P22">
-        <v>232</v>
+        <v>505</v>
       </c>
       <c r="Q22">
-        <v>188</v>
+        <v>395</v>
       </c>
       <c r="R22">
-        <v>177</v>
+        <v>369</v>
       </c>
       <c r="S22">
-        <v>224</v>
+        <v>470</v>
       </c>
       <c r="T22">
-        <v>109</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B23">
-        <v>486</v>
-      </c>
-      <c r="C23">
-        <v>486</v>
-      </c>
-      <c r="D23">
-        <v>486</v>
-      </c>
-      <c r="E23">
-        <v>486</v>
-      </c>
-      <c r="F23">
-        <v>486</v>
-      </c>
-      <c r="G23">
-        <v>486</v>
+      <c r="B23" s="2">
+        <v>1179</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1179</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1179</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1179</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1179</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1179</v>
       </c>
       <c r="H23">
-        <v>395</v>
+        <v>954</v>
       </c>
       <c r="I23">
-        <v>387</v>
+        <v>932</v>
       </c>
       <c r="J23">
-        <v>382</v>
+        <v>920</v>
       </c>
       <c r="K23">
-        <v>357</v>
+        <v>859</v>
       </c>
       <c r="L23">
-        <v>331</v>
+        <v>792</v>
       </c>
       <c r="M23">
-        <v>295</v>
+        <v>703</v>
       </c>
       <c r="N23">
+        <v>552</v>
+      </c>
+      <c r="O23">
+        <v>437</v>
+      </c>
+      <c r="P23">
+        <v>345</v>
+      </c>
+      <c r="Q23">
         <v>235</v>
       </c>
-      <c r="O23">
-        <v>189</v>
-      </c>
-      <c r="P23">
-        <v>152</v>
-      </c>
-      <c r="Q23">
-        <v>108</v>
-      </c>
       <c r="R23">
-        <v>97</v>
+        <v>209</v>
       </c>
       <c r="S23">
-        <v>304</v>
+        <v>630</v>
       </c>
       <c r="T23">
-        <v>190</v>
+        <v>379</v>
       </c>
       <c r="U23">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B24">
-        <v>426</v>
-      </c>
-      <c r="C24">
-        <v>426</v>
-      </c>
-      <c r="D24">
-        <v>426</v>
-      </c>
-      <c r="E24">
-        <v>426</v>
-      </c>
-      <c r="F24">
-        <v>426</v>
-      </c>
-      <c r="G24">
-        <v>426</v>
+      <c r="B24" s="2">
+        <v>1059</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1059</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1059</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1059</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1059</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1059</v>
       </c>
       <c r="H24">
-        <v>335</v>
+        <v>834</v>
       </c>
       <c r="I24">
-        <v>327</v>
+        <v>812</v>
       </c>
       <c r="J24">
-        <v>322</v>
+        <v>800</v>
       </c>
       <c r="K24">
-        <v>297</v>
+        <v>739</v>
       </c>
       <c r="L24">
-        <v>271</v>
+        <v>672</v>
       </c>
       <c r="M24">
-        <v>235</v>
+        <v>583</v>
       </c>
       <c r="N24">
-        <v>175</v>
+        <v>432</v>
       </c>
       <c r="O24">
-        <v>129</v>
+        <v>317</v>
       </c>
       <c r="P24">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="Q24">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="R24">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="S24">
-        <v>364</v>
+        <v>751</v>
       </c>
       <c r="T24">
-        <v>250</v>
+        <v>499</v>
       </c>
       <c r="U24">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="V24">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>40</v>
       </c>
-      <c r="B25">
-        <v>416</v>
-      </c>
-      <c r="C25">
-        <v>416</v>
-      </c>
-      <c r="D25">
-        <v>416</v>
-      </c>
-      <c r="E25">
-        <v>416</v>
-      </c>
-      <c r="F25">
-        <v>416</v>
-      </c>
-      <c r="G25">
-        <v>416</v>
+      <c r="B25" s="2">
+        <v>1039</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1039</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1039</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1039</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1039</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1039</v>
       </c>
       <c r="H25">
-        <v>325</v>
+        <v>814</v>
       </c>
       <c r="I25">
-        <v>317</v>
+        <v>792</v>
       </c>
       <c r="J25">
-        <v>312</v>
+        <v>780</v>
       </c>
       <c r="K25">
-        <v>287</v>
+        <v>719</v>
       </c>
       <c r="L25">
-        <v>261</v>
+        <v>652</v>
       </c>
       <c r="M25">
-        <v>225</v>
+        <v>563</v>
       </c>
       <c r="N25">
-        <v>165</v>
+        <v>412</v>
       </c>
       <c r="O25">
-        <v>119</v>
+        <v>297</v>
       </c>
       <c r="P25">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="Q25">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="R25">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="S25">
-        <v>374</v>
+        <v>771</v>
       </c>
       <c r="T25">
-        <v>260</v>
+        <v>519</v>
       </c>
       <c r="U25">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="V25">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="W25">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>41</v>
       </c>
-      <c r="B26">
-        <v>440</v>
-      </c>
-      <c r="C26">
-        <v>440</v>
-      </c>
-      <c r="D26">
-        <v>440</v>
-      </c>
-      <c r="E26">
-        <v>440</v>
-      </c>
-      <c r="F26">
-        <v>440</v>
-      </c>
-      <c r="G26">
-        <v>440</v>
+      <c r="B26" s="2">
+        <v>1087</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1087</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1087</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1087</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1087</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1087</v>
       </c>
       <c r="H26">
-        <v>349</v>
+        <v>862</v>
       </c>
       <c r="I26">
-        <v>341</v>
+        <v>840</v>
       </c>
       <c r="J26">
-        <v>336</v>
+        <v>828</v>
       </c>
       <c r="K26">
-        <v>311</v>
+        <v>767</v>
       </c>
       <c r="L26">
-        <v>285</v>
+        <v>700</v>
       </c>
       <c r="M26">
-        <v>249</v>
+        <v>611</v>
       </c>
       <c r="N26">
-        <v>189</v>
+        <v>460</v>
       </c>
       <c r="O26">
+        <v>345</v>
+      </c>
+      <c r="P26">
+        <v>253</v>
+      </c>
+      <c r="Q26">
         <v>143</v>
       </c>
-      <c r="P26">
-        <v>106</v>
-      </c>
-      <c r="Q26">
-        <v>62</v>
-      </c>
       <c r="R26">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="S26">
-        <v>398</v>
+        <v>819</v>
       </c>
       <c r="T26">
-        <v>284</v>
+        <v>567</v>
       </c>
       <c r="U26">
-        <v>174</v>
+        <v>348</v>
       </c>
       <c r="V26">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="W26">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="X26">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>42</v>
       </c>
-      <c r="B27">
-        <v>449</v>
-      </c>
-      <c r="C27">
-        <v>449</v>
-      </c>
-      <c r="D27">
-        <v>449</v>
-      </c>
-      <c r="E27">
-        <v>449</v>
-      </c>
-      <c r="F27">
-        <v>449</v>
-      </c>
-      <c r="G27">
-        <v>449</v>
+      <c r="B27" s="2">
+        <v>1105</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1105</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1105</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1105</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1105</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1105</v>
       </c>
       <c r="H27">
-        <v>358</v>
+        <v>880</v>
       </c>
       <c r="I27">
-        <v>350</v>
+        <v>858</v>
       </c>
       <c r="J27">
-        <v>345</v>
+        <v>846</v>
       </c>
       <c r="K27">
-        <v>320</v>
+        <v>785</v>
       </c>
       <c r="L27">
-        <v>294</v>
+        <v>718</v>
       </c>
       <c r="M27">
-        <v>258</v>
+        <v>629</v>
       </c>
       <c r="N27">
-        <v>198</v>
+        <v>478</v>
       </c>
       <c r="O27">
-        <v>152</v>
+        <v>363</v>
       </c>
       <c r="P27">
-        <v>115</v>
+        <v>271</v>
       </c>
       <c r="Q27">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="R27">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="S27">
-        <v>407</v>
+        <v>837</v>
       </c>
       <c r="T27">
-        <v>293</v>
+        <v>585</v>
       </c>
       <c r="U27">
-        <v>183</v>
+        <v>366</v>
       </c>
       <c r="V27">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="W27">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="X27">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="Y27">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>43</v>
       </c>
-      <c r="B28">
-        <v>488</v>
-      </c>
-      <c r="C28">
-        <v>488</v>
-      </c>
-      <c r="D28">
-        <v>488</v>
-      </c>
-      <c r="E28">
-        <v>488</v>
-      </c>
-      <c r="F28">
-        <v>488</v>
-      </c>
-      <c r="G28">
-        <v>488</v>
+      <c r="B28" s="2">
+        <v>1183</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1183</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1183</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1183</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1183</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1183</v>
       </c>
       <c r="H28">
-        <v>397</v>
+        <v>958</v>
       </c>
       <c r="I28">
-        <v>389</v>
+        <v>936</v>
       </c>
       <c r="J28">
-        <v>384</v>
+        <v>924</v>
       </c>
       <c r="K28">
-        <v>359</v>
+        <v>863</v>
       </c>
       <c r="L28">
-        <v>333</v>
+        <v>796</v>
       </c>
       <c r="M28">
-        <v>297</v>
+        <v>707</v>
       </c>
       <c r="N28">
-        <v>237</v>
+        <v>556</v>
       </c>
       <c r="O28">
-        <v>191</v>
+        <v>441</v>
       </c>
       <c r="P28">
-        <v>154</v>
+        <v>349</v>
       </c>
       <c r="Q28">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="R28">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="S28">
-        <v>446</v>
+        <v>915</v>
       </c>
       <c r="T28">
-        <v>332</v>
+        <v>663</v>
       </c>
       <c r="U28">
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="V28">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="W28">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="X28">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="Y28">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="Z28">
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B29">
-        <v>510</v>
-      </c>
-      <c r="C29">
-        <v>510</v>
-      </c>
-      <c r="D29">
-        <v>510</v>
-      </c>
-      <c r="E29">
-        <v>510</v>
-      </c>
-      <c r="F29">
-        <v>510</v>
-      </c>
-      <c r="G29">
-        <v>510</v>
-      </c>
-      <c r="H29">
-        <v>419</v>
+      <c r="B29" s="2">
+        <v>1227</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1227</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1227</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1227</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1227</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1227</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1002</v>
       </c>
       <c r="I29">
-        <v>411</v>
+        <v>980</v>
       </c>
       <c r="J29">
-        <v>406</v>
+        <v>968</v>
       </c>
       <c r="K29">
-        <v>381</v>
+        <v>907</v>
       </c>
       <c r="L29">
-        <v>355</v>
+        <v>840</v>
       </c>
       <c r="M29">
-        <v>319</v>
+        <v>751</v>
       </c>
       <c r="N29">
-        <v>259</v>
+        <v>600</v>
       </c>
       <c r="O29">
-        <v>213</v>
+        <v>485</v>
       </c>
       <c r="P29">
-        <v>176</v>
+        <v>393</v>
       </c>
       <c r="Q29">
-        <v>132</v>
+        <v>283</v>
       </c>
       <c r="R29">
-        <v>121</v>
+        <v>257</v>
       </c>
       <c r="S29">
-        <v>468</v>
+        <v>958</v>
       </c>
       <c r="T29">
-        <v>353</v>
+        <v>707</v>
       </c>
       <c r="U29">
-        <v>244</v>
+        <v>488</v>
       </c>
       <c r="V29">
-        <v>164</v>
+        <v>328</v>
       </c>
       <c r="W29">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="X29">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="Y29">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="Z29">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="AA29">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>45</v>
       </c>
-      <c r="B30">
-        <v>592</v>
-      </c>
-      <c r="C30">
-        <v>592</v>
-      </c>
-      <c r="D30">
-        <v>592</v>
-      </c>
-      <c r="E30">
-        <v>592</v>
-      </c>
-      <c r="F30">
-        <v>592</v>
-      </c>
-      <c r="G30">
-        <v>592</v>
-      </c>
-      <c r="H30">
-        <v>501</v>
-      </c>
-      <c r="I30">
-        <v>493</v>
-      </c>
-      <c r="J30">
-        <v>488</v>
-      </c>
-      <c r="K30">
-        <v>463</v>
-      </c>
-      <c r="L30">
-        <v>437</v>
+      <c r="B30" s="2">
+        <v>1391</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1391</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1391</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1391</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1391</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1391</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1166</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1144</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1132</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1071</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1004</v>
       </c>
       <c r="M30">
-        <v>401</v>
+        <v>915</v>
       </c>
       <c r="N30">
-        <v>341</v>
+        <v>764</v>
       </c>
       <c r="O30">
-        <v>295</v>
+        <v>649</v>
       </c>
       <c r="P30">
-        <v>258</v>
+        <v>557</v>
       </c>
       <c r="Q30">
-        <v>214</v>
+        <v>447</v>
       </c>
       <c r="R30">
-        <v>203</v>
-      </c>
-      <c r="S30">
-        <v>550</v>
+        <v>421</v>
+      </c>
+      <c r="S30" s="2">
+        <v>1123</v>
       </c>
       <c r="T30">
-        <v>436</v>
+        <v>871</v>
       </c>
       <c r="U30">
-        <v>326</v>
+        <v>652</v>
       </c>
       <c r="V30">
-        <v>246</v>
+        <v>492</v>
       </c>
       <c r="W30">
-        <v>186</v>
+        <v>372</v>
       </c>
       <c r="X30">
-        <v>176</v>
+        <v>352</v>
       </c>
       <c r="Y30">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="Z30">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="AA30">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="AB30">
-        <v>82</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31">
-        <v>621</v>
-      </c>
-      <c r="C31">
-        <v>621</v>
-      </c>
-      <c r="D31">
-        <v>621</v>
-      </c>
-      <c r="E31">
-        <v>621</v>
-      </c>
-      <c r="F31">
-        <v>621</v>
-      </c>
-      <c r="G31">
-        <v>621</v>
-      </c>
-      <c r="H31">
-        <v>530</v>
-      </c>
-      <c r="I31">
-        <v>522</v>
-      </c>
-      <c r="J31">
-        <v>517</v>
-      </c>
-      <c r="K31">
-        <v>492</v>
-      </c>
-      <c r="L31">
-        <v>466</v>
+      <c r="B31" s="2">
+        <v>1448</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1448</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1448</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1448</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1448</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1448</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1223</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1201</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1189</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1128</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1061</v>
       </c>
       <c r="M31">
-        <v>430</v>
+        <v>972</v>
       </c>
       <c r="N31">
-        <v>370</v>
+        <v>821</v>
       </c>
       <c r="O31">
-        <v>324</v>
+        <v>706</v>
       </c>
       <c r="P31">
-        <v>287</v>
+        <v>614</v>
       </c>
       <c r="Q31">
-        <v>243</v>
+        <v>504</v>
       </c>
       <c r="R31">
-        <v>232</v>
-      </c>
-      <c r="S31">
-        <v>578</v>
+        <v>478</v>
+      </c>
+      <c r="S31" s="2">
+        <v>1180</v>
       </c>
       <c r="T31">
-        <v>464</v>
+        <v>928</v>
       </c>
       <c r="U31">
-        <v>355</v>
+        <v>709</v>
       </c>
       <c r="V31">
-        <v>275</v>
+        <v>549</v>
       </c>
       <c r="W31">
-        <v>214</v>
+        <v>429</v>
       </c>
       <c r="X31">
-        <v>205</v>
+        <v>409</v>
       </c>
       <c r="Y31">
-        <v>181</v>
+        <v>361</v>
       </c>
       <c r="Z31">
-        <v>172</v>
+        <v>343</v>
       </c>
       <c r="AA31">
-        <v>133</v>
+        <v>265</v>
       </c>
       <c r="AB31">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="AC31">
-        <v>29</v>
-      </c>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="S66" s="2"/>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="S67" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3020,8 +3156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2434ACF-B3FC-E74E-8884-182839C01BCF}">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D10:D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/apps/matrix-importer/class2.xlsx
+++ b/apps/matrix-importer/class2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan.zoleta/Projects/toll-ph/apps/matrix-importer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A7E1B7-D41F-5B4F-900D-9BE5EC99925F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966E8048-7EED-AD41-AAF0-E0A406DDDD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{4EA19FBD-5D92-6444-BD69-1DAF73CA6D21}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{4EA19FBD-5D92-6444-BD69-1DAF73CA6D21}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLEX" sheetId="1" r:id="rId1"/>
@@ -1015,7 +1015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170A0477-B580-C24C-A663-77C94A36182B}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -1296,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946B9BC0-D3F5-9546-A306-F01AB88FB40B}">
   <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1978,55 +1978,55 @@
         <v>48</v>
       </c>
       <c r="B20" s="2">
-        <v>1810</v>
+        <v>1890</v>
       </c>
       <c r="C20" s="2">
-        <v>1810</v>
+        <v>1890</v>
       </c>
       <c r="D20" s="2">
-        <v>1810</v>
+        <v>1890</v>
       </c>
       <c r="E20" s="2">
-        <v>1810</v>
+        <v>1890</v>
       </c>
       <c r="F20" s="2">
-        <v>1810</v>
+        <v>1890</v>
       </c>
       <c r="G20" s="2">
-        <v>1810</v>
+        <v>1890</v>
       </c>
       <c r="H20" s="2">
-        <v>1585</v>
+        <v>1665</v>
       </c>
       <c r="I20" s="2">
-        <v>1563</v>
+        <v>1643</v>
       </c>
       <c r="J20" s="2">
-        <v>1551</v>
+        <v>1631</v>
       </c>
       <c r="K20" s="2">
-        <v>1490</v>
+        <v>1570</v>
       </c>
       <c r="L20" s="2">
-        <v>1423</v>
+        <v>1503</v>
       </c>
       <c r="M20" s="2">
-        <v>1334</v>
+        <v>1414</v>
       </c>
       <c r="N20" s="2">
-        <v>1183</v>
+        <v>1263</v>
       </c>
       <c r="O20" s="2">
-        <v>1068</v>
-      </c>
-      <c r="P20">
-        <v>976</v>
+        <v>1148</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1056</v>
       </c>
       <c r="Q20">
-        <v>866</v>
+        <v>946</v>
       </c>
       <c r="R20">
-        <v>840</v>
+        <v>920</v>
       </c>
       <c r="S20">
         <v>111</v>
@@ -2037,58 +2037,58 @@
         <v>36</v>
       </c>
       <c r="B21" s="2">
-        <v>1558</v>
+        <v>1622</v>
       </c>
       <c r="C21" s="2">
-        <v>1558</v>
+        <v>1622</v>
       </c>
       <c r="D21" s="2">
-        <v>1558</v>
+        <v>1622</v>
       </c>
       <c r="E21" s="2">
-        <v>1558</v>
+        <v>1622</v>
       </c>
       <c r="F21" s="2">
-        <v>1558</v>
+        <v>1622</v>
       </c>
       <c r="G21" s="2">
-        <v>1558</v>
+        <v>1622</v>
       </c>
       <c r="H21" s="2">
-        <v>1333</v>
+        <v>1397</v>
       </c>
       <c r="I21" s="2">
-        <v>1311</v>
+        <v>1375</v>
       </c>
       <c r="J21" s="2">
-        <v>1299</v>
+        <v>1363</v>
       </c>
       <c r="K21" s="2">
-        <v>1238</v>
+        <v>1302</v>
       </c>
       <c r="L21" s="2">
-        <v>1171</v>
+        <v>1235</v>
       </c>
       <c r="M21" s="2">
-        <v>1082</v>
+        <v>1146</v>
       </c>
       <c r="N21">
-        <v>931</v>
+        <v>995</v>
       </c>
       <c r="O21">
-        <v>816</v>
+        <v>880</v>
       </c>
       <c r="P21">
-        <v>724</v>
+        <v>788</v>
       </c>
       <c r="Q21">
-        <v>614</v>
+        <v>678</v>
       </c>
       <c r="R21">
-        <v>588</v>
+        <v>652</v>
       </c>
       <c r="S21">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
@@ -2096,61 +2096,61 @@
         <v>37</v>
       </c>
       <c r="B22" s="2">
-        <v>1339</v>
+        <v>1376</v>
       </c>
       <c r="C22" s="2">
-        <v>1339</v>
+        <v>1376</v>
       </c>
       <c r="D22" s="2">
-        <v>1339</v>
+        <v>1376</v>
       </c>
       <c r="E22" s="2">
-        <v>1339</v>
+        <v>1376</v>
       </c>
       <c r="F22" s="2">
-        <v>1339</v>
+        <v>1376</v>
       </c>
       <c r="G22" s="2">
-        <v>1339</v>
+        <v>1376</v>
       </c>
       <c r="H22" s="2">
-        <v>1114</v>
+        <v>1151</v>
       </c>
       <c r="I22" s="2">
-        <v>1092</v>
+        <v>1129</v>
       </c>
       <c r="J22" s="2">
-        <v>1080</v>
+        <v>1117</v>
       </c>
       <c r="K22" s="2">
-        <v>1019</v>
+        <v>1056</v>
       </c>
       <c r="L22">
-        <v>952</v>
+        <v>989</v>
       </c>
       <c r="M22">
-        <v>863</v>
+        <v>900</v>
       </c>
       <c r="N22">
-        <v>712</v>
+        <v>749</v>
       </c>
       <c r="O22">
-        <v>597</v>
+        <v>634</v>
       </c>
       <c r="P22">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="Q22">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="R22">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="S22">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="T22">
-        <v>219</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
@@ -2158,64 +2158,64 @@
         <v>38</v>
       </c>
       <c r="B23" s="2">
-        <v>1179</v>
+        <v>1196</v>
       </c>
       <c r="C23" s="2">
-        <v>1179</v>
+        <v>1196</v>
       </c>
       <c r="D23" s="2">
-        <v>1179</v>
+        <v>1196</v>
       </c>
       <c r="E23" s="2">
-        <v>1179</v>
+        <v>1196</v>
       </c>
       <c r="F23" s="2">
-        <v>1179</v>
+        <v>1196</v>
       </c>
       <c r="G23" s="2">
-        <v>1179</v>
+        <v>1196</v>
       </c>
       <c r="H23">
-        <v>954</v>
+        <v>971</v>
       </c>
       <c r="I23">
-        <v>932</v>
+        <v>949</v>
       </c>
       <c r="J23">
-        <v>920</v>
+        <v>937</v>
       </c>
       <c r="K23">
-        <v>859</v>
+        <v>876</v>
       </c>
       <c r="L23">
-        <v>792</v>
+        <v>809</v>
       </c>
       <c r="M23">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="N23">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="O23">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="P23">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="Q23">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="R23">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="S23">
-        <v>630</v>
+        <v>694</v>
       </c>
       <c r="T23">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="U23">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
@@ -2223,67 +2223,67 @@
         <v>39</v>
       </c>
       <c r="B24" s="2">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="C24" s="2">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="D24" s="2">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="E24" s="2">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="F24" s="2">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="G24" s="2">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="H24">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="I24">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="J24">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="K24">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="L24">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="M24">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="N24">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="O24">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P24">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q24">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R24">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S24">
-        <v>751</v>
+        <v>829</v>
       </c>
       <c r="T24">
-        <v>499</v>
+        <v>561</v>
       </c>
       <c r="U24">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="V24">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
@@ -2342,19 +2342,19 @@
         <v>69</v>
       </c>
       <c r="S25">
-        <v>771</v>
+        <v>851</v>
       </c>
       <c r="T25">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="U25">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="V25">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="W25">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
@@ -2362,73 +2362,73 @@
         <v>41</v>
       </c>
       <c r="B26" s="2">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="C26" s="2">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="D26" s="2">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="E26" s="2">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="F26" s="2">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="G26" s="2">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="H26">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="I26">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="J26">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="K26">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="L26">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="M26">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="N26">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="O26">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="P26">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q26">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="R26">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="S26">
-        <v>819</v>
+        <v>906</v>
       </c>
       <c r="T26">
-        <v>567</v>
+        <v>637</v>
       </c>
       <c r="U26">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="V26">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="W26">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="X26">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
@@ -2436,76 +2436,76 @@
         <v>42</v>
       </c>
       <c r="B27" s="2">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="C27" s="2">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="D27" s="2">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="E27" s="2">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="F27" s="2">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="G27" s="2">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="H27">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="I27">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="J27">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="K27">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="L27">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="M27">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="N27">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="O27">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="P27">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="Q27">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="R27">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="S27">
-        <v>837</v>
+        <v>926</v>
       </c>
       <c r="T27">
-        <v>585</v>
+        <v>657</v>
       </c>
       <c r="U27">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="V27">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="W27">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="X27">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="Y27">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
@@ -2513,79 +2513,79 @@
         <v>43</v>
       </c>
       <c r="B28" s="2">
-        <v>1183</v>
+        <v>1201</v>
       </c>
       <c r="C28" s="2">
-        <v>1183</v>
+        <v>1201</v>
       </c>
       <c r="D28" s="2">
-        <v>1183</v>
+        <v>1201</v>
       </c>
       <c r="E28" s="2">
-        <v>1183</v>
+        <v>1201</v>
       </c>
       <c r="F28" s="2">
-        <v>1183</v>
+        <v>1201</v>
       </c>
       <c r="G28" s="2">
-        <v>1183</v>
+        <v>1201</v>
       </c>
       <c r="H28">
-        <v>958</v>
+        <v>976</v>
       </c>
       <c r="I28">
-        <v>936</v>
+        <v>954</v>
       </c>
       <c r="J28">
-        <v>924</v>
+        <v>942</v>
       </c>
       <c r="K28">
-        <v>863</v>
+        <v>881</v>
       </c>
       <c r="L28">
-        <v>796</v>
+        <v>814</v>
       </c>
       <c r="M28">
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="N28">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="O28">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="P28">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="Q28">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="R28">
-        <v>213</v>
-      </c>
-      <c r="S28">
-        <v>915</v>
+        <v>231</v>
+      </c>
+      <c r="S28" s="2">
+        <v>1013</v>
       </c>
       <c r="T28">
-        <v>663</v>
+        <v>744</v>
       </c>
       <c r="U28">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="V28">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="W28">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="X28">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="Y28">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="Z28">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
@@ -2593,82 +2593,82 @@
         <v>44</v>
       </c>
       <c r="B29" s="2">
-        <v>1227</v>
+        <v>1250</v>
       </c>
       <c r="C29" s="2">
-        <v>1227</v>
+        <v>1250</v>
       </c>
       <c r="D29" s="2">
-        <v>1227</v>
+        <v>1250</v>
       </c>
       <c r="E29" s="2">
-        <v>1227</v>
+        <v>1250</v>
       </c>
       <c r="F29" s="2">
-        <v>1227</v>
+        <v>1250</v>
       </c>
       <c r="G29" s="2">
-        <v>1227</v>
+        <v>1250</v>
       </c>
       <c r="H29" s="2">
-        <v>1002</v>
-      </c>
-      <c r="I29">
-        <v>980</v>
+        <v>1025</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1003</v>
       </c>
       <c r="J29">
-        <v>968</v>
+        <v>991</v>
       </c>
       <c r="K29">
-        <v>907</v>
+        <v>930</v>
       </c>
       <c r="L29">
-        <v>840</v>
+        <v>863</v>
       </c>
       <c r="M29">
-        <v>751</v>
+        <v>774</v>
       </c>
       <c r="N29">
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="O29">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="P29">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="Q29">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="R29">
-        <v>257</v>
-      </c>
-      <c r="S29">
-        <v>958</v>
+        <v>280</v>
+      </c>
+      <c r="S29" s="2">
+        <v>1062</v>
       </c>
       <c r="T29">
-        <v>707</v>
+        <v>793</v>
       </c>
       <c r="U29">
-        <v>488</v>
+        <v>548</v>
       </c>
       <c r="V29">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="W29">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="X29">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="Y29">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="Z29">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="AA29">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
@@ -2676,85 +2676,85 @@
         <v>45</v>
       </c>
       <c r="B30" s="2">
-        <v>1391</v>
+        <v>1434</v>
       </c>
       <c r="C30" s="2">
-        <v>1391</v>
+        <v>1434</v>
       </c>
       <c r="D30" s="2">
-        <v>1391</v>
+        <v>1434</v>
       </c>
       <c r="E30" s="2">
-        <v>1391</v>
+        <v>1434</v>
       </c>
       <c r="F30" s="2">
-        <v>1391</v>
+        <v>1434</v>
       </c>
       <c r="G30" s="2">
-        <v>1391</v>
+        <v>1434</v>
       </c>
       <c r="H30" s="2">
-        <v>1166</v>
+        <v>1209</v>
       </c>
       <c r="I30" s="2">
-        <v>1144</v>
+        <v>1187</v>
       </c>
       <c r="J30" s="2">
-        <v>1132</v>
+        <v>1175</v>
       </c>
       <c r="K30" s="2">
-        <v>1071</v>
+        <v>1114</v>
       </c>
       <c r="L30" s="2">
-        <v>1004</v>
+        <v>1047</v>
       </c>
       <c r="M30">
-        <v>915</v>
+        <v>958</v>
       </c>
       <c r="N30">
-        <v>764</v>
+        <v>807</v>
       </c>
       <c r="O30">
-        <v>649</v>
+        <v>692</v>
       </c>
       <c r="P30">
-        <v>557</v>
+        <v>600</v>
       </c>
       <c r="Q30">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="R30">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="S30" s="2">
-        <v>1123</v>
+        <v>1247</v>
       </c>
       <c r="T30">
-        <v>871</v>
+        <v>978</v>
       </c>
       <c r="U30">
-        <v>652</v>
+        <v>732</v>
       </c>
       <c r="V30">
-        <v>492</v>
+        <v>552</v>
       </c>
       <c r="W30">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="X30">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="Y30">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="Z30">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="AA30">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="AB30">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
@@ -2762,88 +2762,88 @@
         <v>46</v>
       </c>
       <c r="B31" s="2">
-        <v>1448</v>
+        <v>1499</v>
       </c>
       <c r="C31" s="2">
-        <v>1448</v>
+        <v>1499</v>
       </c>
       <c r="D31" s="2">
-        <v>1448</v>
+        <v>1499</v>
       </c>
       <c r="E31" s="2">
-        <v>1448</v>
+        <v>1499</v>
       </c>
       <c r="F31" s="2">
-        <v>1448</v>
+        <v>1499</v>
       </c>
       <c r="G31" s="2">
-        <v>1448</v>
+        <v>1499</v>
       </c>
       <c r="H31" s="2">
-        <v>1223</v>
+        <v>1274</v>
       </c>
       <c r="I31" s="2">
-        <v>1201</v>
+        <v>1252</v>
       </c>
       <c r="J31" s="2">
-        <v>1189</v>
+        <v>1240</v>
       </c>
       <c r="K31" s="2">
-        <v>1128</v>
+        <v>1179</v>
       </c>
       <c r="L31" s="2">
-        <v>1061</v>
-      </c>
-      <c r="M31">
-        <v>972</v>
+        <v>1112</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1023</v>
       </c>
       <c r="N31">
-        <v>821</v>
+        <v>872</v>
       </c>
       <c r="O31">
-        <v>706</v>
+        <v>757</v>
       </c>
       <c r="P31">
-        <v>614</v>
+        <v>665</v>
       </c>
       <c r="Q31">
-        <v>504</v>
+        <v>555</v>
       </c>
       <c r="R31">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="S31" s="2">
-        <v>1180</v>
-      </c>
-      <c r="T31">
-        <v>928</v>
+        <v>1311</v>
+      </c>
+      <c r="T31" s="2">
+        <v>1042</v>
       </c>
       <c r="U31">
-        <v>709</v>
+        <v>796</v>
       </c>
       <c r="V31">
-        <v>549</v>
+        <v>617</v>
       </c>
       <c r="W31">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="X31">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="Y31">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="Z31">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="AA31">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="AB31">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="AC31">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">

--- a/apps/matrix-importer/class2.xlsx
+++ b/apps/matrix-importer/class2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan.zoleta/Projects/toll-ph/apps/matrix-importer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D43F095-164A-064F-907C-E89C9D87E0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64B4C58-C3E2-2947-8790-094D06D46C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{4EA19FBD-5D92-6444-BD69-1DAF73CA6D21}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{4EA19FBD-5D92-6444-BD69-1DAF73CA6D21}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLEX" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="80">
   <si>
     <t>La Paz</t>
   </si>
@@ -185,7 +185,100 @@
     <t>Magallanes (Skyway)</t>
   </si>
   <si>
-    <t>s</t>
+    <t>Balintawak</t>
+  </si>
+  <si>
+    <t>Mindanao Ave.</t>
+  </si>
+  <si>
+    <t>Karuhatan</t>
+  </si>
+  <si>
+    <t>Valenzuela</t>
+  </si>
+  <si>
+    <t>Meycauayan</t>
+  </si>
+  <si>
+    <t>Marilao</t>
+  </si>
+  <si>
+    <t>Ciudad de Victoria</t>
+  </si>
+  <si>
+    <t>Bocaue</t>
+  </si>
+  <si>
+    <t>Tambubong</t>
+  </si>
+  <si>
+    <t>Balagtas</t>
+  </si>
+  <si>
+    <t>Sta. Rita</t>
+  </si>
+  <si>
+    <t>Pulilan</t>
+  </si>
+  <si>
+    <t>San Simon</t>
+  </si>
+  <si>
+    <t>San Fernando</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Angeles</t>
+  </si>
+  <si>
+    <t>Dau</t>
+  </si>
+  <si>
+    <t>Tipo/Subic</t>
+  </si>
+  <si>
+    <t>Dinalupihan</t>
+  </si>
+  <si>
+    <t>Floridablanca</t>
+  </si>
+  <si>
+    <t>Porac</t>
+  </si>
+  <si>
+    <t>Clark South</t>
+  </si>
+  <si>
+    <t>Mabalacat (Mabiga)</t>
+  </si>
+  <si>
+    <t>Clark North</t>
+  </si>
+  <si>
+    <t>Dolores</t>
+  </si>
+  <si>
+    <t>Bamban/New Clark City</t>
+  </si>
+  <si>
+    <t>Concepcion</t>
+  </si>
+  <si>
+    <t>Hacienda Luisita</t>
+  </si>
+  <si>
+    <t>Tarlac</t>
+  </si>
+  <si>
+    <t>Mindanao Avenue</t>
+  </si>
+  <si>
+    <t>Tabang</t>
+  </si>
+  <si>
+    <t>Sta. Ines</t>
   </si>
 </sst>
 </file>
@@ -863,16 +956,1895 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946B9BC0-D3F5-9546-A306-F01AB88FB40B}">
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:AD69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="A1:V19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>211</v>
+      </c>
+      <c r="C3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>211</v>
+      </c>
+      <c r="C4">
+        <v>211</v>
+      </c>
+      <c r="D4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>211</v>
+      </c>
+      <c r="C5">
+        <v>211</v>
+      </c>
+      <c r="D5">
+        <v>211</v>
+      </c>
+      <c r="E5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>211</v>
+      </c>
+      <c r="C6">
+        <v>211</v>
+      </c>
+      <c r="D6">
+        <v>211</v>
+      </c>
+      <c r="E6">
+        <v>211</v>
+      </c>
+      <c r="F6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>240</v>
+      </c>
+      <c r="C7">
+        <v>240</v>
+      </c>
+      <c r="D7">
+        <v>240</v>
+      </c>
+      <c r="E7">
+        <v>240</v>
+      </c>
+      <c r="F7">
+        <v>240</v>
+      </c>
+      <c r="G7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>263</v>
+      </c>
+      <c r="C8">
+        <v>263</v>
+      </c>
+      <c r="D8">
+        <v>263</v>
+      </c>
+      <c r="E8">
+        <v>263</v>
+      </c>
+      <c r="F8">
+        <v>263</v>
+      </c>
+      <c r="G8">
+        <v>263</v>
+      </c>
+      <c r="H8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>275</v>
+      </c>
+      <c r="C9">
+        <v>275</v>
+      </c>
+      <c r="D9">
+        <v>275</v>
+      </c>
+      <c r="E9">
+        <v>275</v>
+      </c>
+      <c r="F9">
+        <v>275</v>
+      </c>
+      <c r="G9">
+        <v>275</v>
+      </c>
+      <c r="H9">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10">
+        <v>340</v>
+      </c>
+      <c r="C10">
+        <v>340</v>
+      </c>
+      <c r="D10">
+        <v>340</v>
+      </c>
+      <c r="E10">
+        <v>340</v>
+      </c>
+      <c r="F10">
+        <v>340</v>
+      </c>
+      <c r="G10">
+        <v>340</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>77</v>
+      </c>
+      <c r="J10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11">
+        <v>392</v>
+      </c>
+      <c r="C11">
+        <v>392</v>
+      </c>
+      <c r="D11">
+        <v>392</v>
+      </c>
+      <c r="E11">
+        <v>392</v>
+      </c>
+      <c r="F11">
+        <v>392</v>
+      </c>
+      <c r="G11">
+        <v>392</v>
+      </c>
+      <c r="H11">
+        <v>152</v>
+      </c>
+      <c r="I11">
+        <v>129</v>
+      </c>
+      <c r="J11">
+        <v>117</v>
+      </c>
+      <c r="K11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12">
+        <v>411</v>
+      </c>
+      <c r="C12">
+        <v>411</v>
+      </c>
+      <c r="D12">
+        <v>411</v>
+      </c>
+      <c r="E12">
+        <v>411</v>
+      </c>
+      <c r="F12">
+        <v>411</v>
+      </c>
+      <c r="G12">
+        <v>411</v>
+      </c>
+      <c r="H12">
+        <v>171</v>
+      </c>
+      <c r="I12">
+        <v>148</v>
+      </c>
+      <c r="J12">
+        <v>135</v>
+      </c>
+      <c r="K12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13">
+        <v>504</v>
+      </c>
+      <c r="C13">
+        <v>504</v>
+      </c>
+      <c r="D13">
+        <v>504</v>
+      </c>
+      <c r="E13">
+        <v>504</v>
+      </c>
+      <c r="F13">
+        <v>504</v>
+      </c>
+      <c r="G13">
+        <v>504</v>
+      </c>
+      <c r="H13">
+        <v>264</v>
+      </c>
+      <c r="I13">
+        <v>241</v>
+      </c>
+      <c r="J13">
+        <v>229</v>
+      </c>
+      <c r="K13">
+        <v>164</v>
+      </c>
+      <c r="L13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>664</v>
+      </c>
+      <c r="C14">
+        <v>664</v>
+      </c>
+      <c r="D14">
+        <v>664</v>
+      </c>
+      <c r="E14">
+        <v>664</v>
+      </c>
+      <c r="F14">
+        <v>664</v>
+      </c>
+      <c r="G14">
+        <v>664</v>
+      </c>
+      <c r="H14">
+        <v>424</v>
+      </c>
+      <c r="I14">
+        <v>401</v>
+      </c>
+      <c r="J14">
+        <v>389</v>
+      </c>
+      <c r="K14">
+        <v>324</v>
+      </c>
+      <c r="L14">
+        <v>253</v>
+      </c>
+      <c r="M14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15">
+        <v>786</v>
+      </c>
+      <c r="C15">
+        <v>786</v>
+      </c>
+      <c r="D15">
+        <v>786</v>
+      </c>
+      <c r="E15">
+        <v>786</v>
+      </c>
+      <c r="F15">
+        <v>786</v>
+      </c>
+      <c r="G15">
+        <v>786</v>
+      </c>
+      <c r="H15">
+        <v>546</v>
+      </c>
+      <c r="I15">
+        <v>523</v>
+      </c>
+      <c r="J15">
+        <v>510</v>
+      </c>
+      <c r="K15">
+        <v>446</v>
+      </c>
+      <c r="L15">
+        <v>375</v>
+      </c>
+      <c r="M15">
+        <v>281</v>
+      </c>
+      <c r="N15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16">
+        <v>883</v>
+      </c>
+      <c r="C16">
+        <v>883</v>
+      </c>
+      <c r="D16">
+        <v>883</v>
+      </c>
+      <c r="E16">
+        <v>883</v>
+      </c>
+      <c r="F16">
+        <v>883</v>
+      </c>
+      <c r="G16">
+        <v>883</v>
+      </c>
+      <c r="H16">
+        <v>643</v>
+      </c>
+      <c r="I16">
+        <v>620</v>
+      </c>
+      <c r="J16">
+        <v>607</v>
+      </c>
+      <c r="K16">
+        <v>543</v>
+      </c>
+      <c r="L16">
+        <v>472</v>
+      </c>
+      <c r="M16">
+        <v>378</v>
+      </c>
+      <c r="N16">
+        <v>219</v>
+      </c>
+      <c r="O16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17">
+        <v>998</v>
+      </c>
+      <c r="C17">
+        <v>998</v>
+      </c>
+      <c r="D17">
+        <v>998</v>
+      </c>
+      <c r="E17">
+        <v>998</v>
+      </c>
+      <c r="F17">
+        <v>998</v>
+      </c>
+      <c r="G17">
+        <v>998</v>
+      </c>
+      <c r="H17">
+        <v>758</v>
+      </c>
+      <c r="I17">
+        <v>735</v>
+      </c>
+      <c r="J17">
+        <v>723</v>
+      </c>
+      <c r="K17">
+        <v>658</v>
+      </c>
+      <c r="L17">
+        <v>588</v>
+      </c>
+      <c r="M17">
+        <v>494</v>
+      </c>
+      <c r="N17">
+        <v>334</v>
+      </c>
+      <c r="O17">
+        <v>213</v>
+      </c>
+      <c r="P17">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1026</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1026</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1026</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1026</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1026</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1026</v>
+      </c>
+      <c r="H18">
+        <v>787</v>
+      </c>
+      <c r="I18">
+        <v>763</v>
+      </c>
+      <c r="J18">
+        <v>751</v>
+      </c>
+      <c r="K18">
+        <v>686</v>
+      </c>
+      <c r="L18">
+        <v>616</v>
+      </c>
+      <c r="M18">
+        <v>522</v>
+      </c>
+      <c r="N18">
+        <v>362</v>
+      </c>
+      <c r="O18">
+        <v>241</v>
+      </c>
+      <c r="P18">
+        <v>144</v>
+      </c>
+      <c r="Q18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1099</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1099</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1099</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1099</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1099</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1099</v>
+      </c>
+      <c r="H19">
+        <v>859</v>
+      </c>
+      <c r="I19">
+        <v>836</v>
+      </c>
+      <c r="J19">
+        <v>824</v>
+      </c>
+      <c r="K19">
+        <v>759</v>
+      </c>
+      <c r="L19">
+        <v>688</v>
+      </c>
+      <c r="M19">
+        <v>595</v>
+      </c>
+      <c r="N19">
+        <v>435</v>
+      </c>
+      <c r="O19">
+        <v>313</v>
+      </c>
+      <c r="P19">
+        <v>216</v>
+      </c>
+      <c r="Q19">
+        <v>101</v>
+      </c>
+      <c r="R19">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1956</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1956</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1956</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1956</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1956</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1956</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1716</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1693</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1681</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1616</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1545</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1452</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1292</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1170</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1073</v>
+      </c>
+      <c r="Q20">
+        <v>958</v>
+      </c>
+      <c r="R20">
+        <v>929</v>
+      </c>
+      <c r="S20">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1682</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1682</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1682</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1682</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1682</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1682</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1442</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1419</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1407</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1342</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1271</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1178</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1018</v>
+      </c>
+      <c r="O21">
+        <v>896</v>
+      </c>
+      <c r="P21">
+        <v>799</v>
+      </c>
+      <c r="Q21">
+        <v>684</v>
+      </c>
+      <c r="R21">
+        <v>655</v>
+      </c>
+      <c r="S21">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1436</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1436</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1436</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1436</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1436</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1436</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1196</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1173</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1161</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1096</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1025</v>
+      </c>
+      <c r="M22">
+        <v>932</v>
+      </c>
+      <c r="N22">
+        <v>772</v>
+      </c>
+      <c r="O22">
+        <v>650</v>
+      </c>
+      <c r="P22">
+        <v>553</v>
+      </c>
+      <c r="Q22">
+        <v>438</v>
+      </c>
+      <c r="R22">
+        <v>409</v>
+      </c>
+      <c r="S22">
+        <v>520</v>
+      </c>
+      <c r="T22">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1256</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1256</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1256</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1256</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1256</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1256</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1016</v>
+      </c>
+      <c r="I23">
+        <v>993</v>
+      </c>
+      <c r="J23">
+        <v>981</v>
+      </c>
+      <c r="K23">
+        <v>916</v>
+      </c>
+      <c r="L23">
+        <v>845</v>
+      </c>
+      <c r="M23">
+        <v>752</v>
+      </c>
+      <c r="N23">
+        <v>592</v>
+      </c>
+      <c r="O23">
+        <v>470</v>
+      </c>
+      <c r="P23">
+        <v>373</v>
+      </c>
+      <c r="Q23">
+        <v>258</v>
+      </c>
+      <c r="R23">
+        <v>229</v>
+      </c>
+      <c r="S23">
+        <v>700</v>
+      </c>
+      <c r="T23">
+        <v>425</v>
+      </c>
+      <c r="U23">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1121</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1121</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1121</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1121</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1121</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1121</v>
+      </c>
+      <c r="H24">
+        <v>881</v>
+      </c>
+      <c r="I24">
+        <v>858</v>
+      </c>
+      <c r="J24">
+        <v>846</v>
+      </c>
+      <c r="K24">
+        <v>781</v>
+      </c>
+      <c r="L24">
+        <v>710</v>
+      </c>
+      <c r="M24">
+        <v>617</v>
+      </c>
+      <c r="N24">
+        <v>457</v>
+      </c>
+      <c r="O24">
+        <v>335</v>
+      </c>
+      <c r="P24">
+        <v>238</v>
+      </c>
+      <c r="Q24">
+        <v>123</v>
+      </c>
+      <c r="R24">
+        <v>94</v>
+      </c>
+      <c r="S24">
+        <v>835</v>
+      </c>
+      <c r="T24">
+        <v>561</v>
+      </c>
+      <c r="U24">
+        <v>315</v>
+      </c>
+      <c r="V24">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1099</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1099</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1099</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1099</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1099</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1099</v>
+      </c>
+      <c r="H25">
+        <v>859</v>
+      </c>
+      <c r="I25">
+        <v>836</v>
+      </c>
+      <c r="J25">
+        <v>824</v>
+      </c>
+      <c r="K25">
+        <v>759</v>
+      </c>
+      <c r="L25">
+        <v>688</v>
+      </c>
+      <c r="M25">
+        <v>595</v>
+      </c>
+      <c r="N25">
+        <v>435</v>
+      </c>
+      <c r="O25">
+        <v>313</v>
+      </c>
+      <c r="P25">
+        <v>216</v>
+      </c>
+      <c r="Q25">
+        <v>101</v>
+      </c>
+      <c r="R25">
+        <v>72</v>
+      </c>
+      <c r="S25">
+        <v>857</v>
+      </c>
+      <c r="T25">
+        <v>583</v>
+      </c>
+      <c r="U25">
+        <v>337</v>
+      </c>
+      <c r="V25">
+        <v>157</v>
+      </c>
+      <c r="W25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1153</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1153</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1153</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1153</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1153</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1153</v>
+      </c>
+      <c r="H26">
+        <v>913</v>
+      </c>
+      <c r="I26">
+        <v>890</v>
+      </c>
+      <c r="J26">
+        <v>878</v>
+      </c>
+      <c r="K26">
+        <v>813</v>
+      </c>
+      <c r="L26">
+        <v>742</v>
+      </c>
+      <c r="M26">
+        <v>649</v>
+      </c>
+      <c r="N26">
+        <v>489</v>
+      </c>
+      <c r="O26">
+        <v>367</v>
+      </c>
+      <c r="P26">
+        <v>270</v>
+      </c>
+      <c r="Q26">
+        <v>155</v>
+      </c>
+      <c r="R26">
+        <v>126</v>
+      </c>
+      <c r="S26">
+        <v>912</v>
+      </c>
+      <c r="T26">
+        <v>637</v>
+      </c>
+      <c r="U26">
+        <v>391</v>
+      </c>
+      <c r="V26">
+        <v>211</v>
+      </c>
+      <c r="W26">
+        <v>76</v>
+      </c>
+      <c r="X26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1173</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1173</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1173</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1173</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1173</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1173</v>
+      </c>
+      <c r="H27">
+        <v>933</v>
+      </c>
+      <c r="I27">
+        <v>910</v>
+      </c>
+      <c r="J27">
+        <v>898</v>
+      </c>
+      <c r="K27">
+        <v>833</v>
+      </c>
+      <c r="L27">
+        <v>762</v>
+      </c>
+      <c r="M27">
+        <v>669</v>
+      </c>
+      <c r="N27">
+        <v>509</v>
+      </c>
+      <c r="O27">
+        <v>387</v>
+      </c>
+      <c r="P27">
+        <v>290</v>
+      </c>
+      <c r="Q27">
+        <v>175</v>
+      </c>
+      <c r="R27">
+        <v>146</v>
+      </c>
+      <c r="S27">
+        <v>932</v>
+      </c>
+      <c r="T27">
+        <v>657</v>
+      </c>
+      <c r="U27">
+        <v>411</v>
+      </c>
+      <c r="V27">
+        <v>231</v>
+      </c>
+      <c r="W27">
+        <v>96</v>
+      </c>
+      <c r="X27">
+        <v>74</v>
+      </c>
+      <c r="Y27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1261</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1261</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1261</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1261</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1261</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1261</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1021</v>
+      </c>
+      <c r="I28">
+        <v>998</v>
+      </c>
+      <c r="J28">
+        <v>986</v>
+      </c>
+      <c r="K28">
+        <v>921</v>
+      </c>
+      <c r="L28">
+        <v>850</v>
+      </c>
+      <c r="M28">
+        <v>757</v>
+      </c>
+      <c r="N28">
+        <v>597</v>
+      </c>
+      <c r="O28">
+        <v>475</v>
+      </c>
+      <c r="P28">
+        <v>378</v>
+      </c>
+      <c r="Q28">
+        <v>263</v>
+      </c>
+      <c r="R28">
+        <v>234</v>
+      </c>
+      <c r="S28" s="2">
+        <v>1019</v>
+      </c>
+      <c r="T28">
+        <v>744</v>
+      </c>
+      <c r="U28">
+        <v>498</v>
+      </c>
+      <c r="V28">
+        <v>319</v>
+      </c>
+      <c r="W28">
+        <v>184</v>
+      </c>
+      <c r="X28">
+        <v>162</v>
+      </c>
+      <c r="Y28">
+        <v>107</v>
+      </c>
+      <c r="Z28">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1310</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1310</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1310</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1310</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1310</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1310</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1070</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1047</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1035</v>
+      </c>
+      <c r="K29">
+        <v>970</v>
+      </c>
+      <c r="L29">
+        <v>899</v>
+      </c>
+      <c r="M29">
+        <v>806</v>
+      </c>
+      <c r="N29">
+        <v>646</v>
+      </c>
+      <c r="O29">
+        <v>524</v>
+      </c>
+      <c r="P29">
+        <v>427</v>
+      </c>
+      <c r="Q29">
+        <v>312</v>
+      </c>
+      <c r="R29">
+        <v>283</v>
+      </c>
+      <c r="S29" s="2">
+        <v>1068</v>
+      </c>
+      <c r="T29">
+        <v>793</v>
+      </c>
+      <c r="U29">
+        <v>548</v>
+      </c>
+      <c r="V29">
+        <v>368</v>
+      </c>
+      <c r="W29">
+        <v>233</v>
+      </c>
+      <c r="X29">
+        <v>211</v>
+      </c>
+      <c r="Y29">
+        <v>157</v>
+      </c>
+      <c r="Z29">
+        <v>137</v>
+      </c>
+      <c r="AA29">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1494</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1494</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1494</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1494</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1494</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1494</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1254</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1231</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1219</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1154</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1083</v>
+      </c>
+      <c r="M30">
+        <v>990</v>
+      </c>
+      <c r="N30">
+        <v>830</v>
+      </c>
+      <c r="O30">
+        <v>708</v>
+      </c>
+      <c r="P30">
+        <v>611</v>
+      </c>
+      <c r="Q30">
+        <v>496</v>
+      </c>
+      <c r="R30">
+        <v>467</v>
+      </c>
+      <c r="S30" s="2">
+        <v>1253</v>
+      </c>
+      <c r="T30">
+        <v>978</v>
+      </c>
+      <c r="U30">
+        <v>732</v>
+      </c>
+      <c r="V30">
+        <v>552</v>
+      </c>
+      <c r="W30">
+        <v>417</v>
+      </c>
+      <c r="X30">
+        <v>395</v>
+      </c>
+      <c r="Y30">
+        <v>341</v>
+      </c>
+      <c r="Z30">
+        <v>321</v>
+      </c>
+      <c r="AA30">
+        <v>234</v>
+      </c>
+      <c r="AB30">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1559</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1559</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1559</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1559</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1559</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1559</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1319</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1296</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1284</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1219</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1148</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1055</v>
+      </c>
+      <c r="N31">
+        <v>895</v>
+      </c>
+      <c r="O31">
+        <v>773</v>
+      </c>
+      <c r="P31">
+        <v>676</v>
+      </c>
+      <c r="Q31">
+        <v>561</v>
+      </c>
+      <c r="R31">
+        <v>532</v>
+      </c>
+      <c r="S31" s="2">
+        <v>1317</v>
+      </c>
+      <c r="T31" s="2">
+        <v>1042</v>
+      </c>
+      <c r="U31">
+        <v>796</v>
+      </c>
+      <c r="V31">
+        <v>617</v>
+      </c>
+      <c r="W31">
+        <v>482</v>
+      </c>
+      <c r="X31">
+        <v>460</v>
+      </c>
+      <c r="Y31">
+        <v>405</v>
+      </c>
+      <c r="Z31">
+        <v>385</v>
+      </c>
+      <c r="AA31">
+        <v>298</v>
+      </c>
+      <c r="AB31">
+        <v>249</v>
+      </c>
+      <c r="AC31">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="S66" s="2"/>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="S67" s="2"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="S68" s="2"/>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173F68B0-E834-4C4B-9EEC-B98711794196}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>88</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>116</v>
+      </c>
+      <c r="C4">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>152</v>
+      </c>
+      <c r="C5">
+        <v>89</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>173</v>
+      </c>
+      <c r="C6">
+        <v>110</v>
+      </c>
+      <c r="D6">
+        <v>85</v>
+      </c>
+      <c r="E6">
+        <v>57</v>
+      </c>
+      <c r="F6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>229</v>
+      </c>
+      <c r="C7">
+        <v>166</v>
+      </c>
+      <c r="D7">
+        <v>142</v>
+      </c>
+      <c r="E7">
+        <v>113</v>
+      </c>
+      <c r="F7">
+        <v>77</v>
+      </c>
+      <c r="G7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>271</v>
+      </c>
+      <c r="C8">
+        <v>208</v>
+      </c>
+      <c r="D8">
+        <v>183</v>
+      </c>
+      <c r="E8">
+        <v>154</v>
+      </c>
+      <c r="F8">
+        <v>118</v>
+      </c>
+      <c r="G8">
+        <v>98</v>
+      </c>
+      <c r="H8">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2434ACF-B3FC-E74E-8884-182839C01BCF}">
+  <dimension ref="A1:V23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="21" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -977,8 +2949,8 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3">
-        <v>72</v>
+      <c r="F3">
+        <v>145</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1105,1275 +3077,6 @@
       <c r="E6">
         <v>237</v>
       </c>
-      <c r="F6" s="3">
-        <v>34</v>
-      </c>
-      <c r="G6">
-        <v>237</v>
-      </c>
-      <c r="H6">
-        <v>237</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>329</v>
-      </c>
-      <c r="C7">
-        <v>237</v>
-      </c>
-      <c r="D7">
-        <v>237</v>
-      </c>
-      <c r="E7">
-        <v>329</v>
-      </c>
-      <c r="F7" s="3">
-        <v>69</v>
-      </c>
-      <c r="G7">
-        <v>329</v>
-      </c>
-      <c r="H7">
-        <v>329</v>
-      </c>
-      <c r="I7">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8">
-        <v>340</v>
-      </c>
-      <c r="C8">
-        <v>248</v>
-      </c>
-      <c r="D8">
-        <v>248</v>
-      </c>
-      <c r="E8">
-        <v>340</v>
-      </c>
-      <c r="F8" s="3">
-        <v>75</v>
-      </c>
-      <c r="G8">
-        <v>340</v>
-      </c>
-      <c r="H8">
-        <v>340</v>
-      </c>
-      <c r="I8">
-        <v>80</v>
-      </c>
-      <c r="J8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9">
-        <v>418</v>
-      </c>
-      <c r="C9">
-        <v>326</v>
-      </c>
-      <c r="D9">
-        <v>326</v>
-      </c>
-      <c r="E9">
-        <v>418</v>
-      </c>
-      <c r="F9" s="3">
-        <v>113</v>
-      </c>
-      <c r="G9">
-        <v>418</v>
-      </c>
-      <c r="H9">
-        <v>418</v>
-      </c>
-      <c r="I9">
-        <v>158</v>
-      </c>
-      <c r="J9">
-        <v>89</v>
-      </c>
-      <c r="K9">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10">
-        <v>371</v>
-      </c>
-      <c r="C10">
-        <v>279</v>
-      </c>
-      <c r="D10">
-        <v>279</v>
-      </c>
-      <c r="E10">
-        <v>371</v>
-      </c>
-      <c r="F10" s="3">
-        <v>90</v>
-      </c>
-      <c r="G10">
-        <v>371</v>
-      </c>
-      <c r="H10">
-        <v>371</v>
-      </c>
-      <c r="I10">
-        <v>111</v>
-      </c>
-      <c r="J10">
-        <v>42</v>
-      </c>
-      <c r="K10">
-        <v>31</v>
-      </c>
-      <c r="L10">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11">
-        <v>385</v>
-      </c>
-      <c r="C11">
-        <v>293</v>
-      </c>
-      <c r="D11">
-        <v>293</v>
-      </c>
-      <c r="E11">
-        <v>385</v>
-      </c>
-      <c r="F11" s="3">
-        <v>97</v>
-      </c>
-      <c r="G11">
-        <v>385</v>
-      </c>
-      <c r="H11">
-        <v>385</v>
-      </c>
-      <c r="I11">
-        <v>125</v>
-      </c>
-      <c r="J11">
-        <v>56</v>
-      </c>
-      <c r="K11">
-        <v>45</v>
-      </c>
-      <c r="L11">
-        <v>61</v>
-      </c>
-      <c r="M11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
-        <v>420</v>
-      </c>
-      <c r="C12">
-        <v>328</v>
-      </c>
-      <c r="D12">
-        <v>328</v>
-      </c>
-      <c r="E12">
-        <v>420</v>
-      </c>
-      <c r="F12" s="3">
-        <v>115</v>
-      </c>
-      <c r="G12">
-        <v>420</v>
-      </c>
-      <c r="H12">
-        <v>420</v>
-      </c>
-      <c r="I12">
-        <v>160</v>
-      </c>
-      <c r="J12">
-        <v>91</v>
-      </c>
-      <c r="K12">
-        <v>80</v>
-      </c>
-      <c r="L12">
-        <v>96</v>
-      </c>
-      <c r="M12">
-        <v>49</v>
-      </c>
-      <c r="N12">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13">
-        <v>434</v>
-      </c>
-      <c r="C13">
-        <v>342</v>
-      </c>
-      <c r="D13">
-        <v>342</v>
-      </c>
-      <c r="E13">
-        <v>434</v>
-      </c>
-      <c r="F13" s="3">
-        <v>121</v>
-      </c>
-      <c r="G13">
-        <v>434</v>
-      </c>
-      <c r="H13">
-        <v>434</v>
-      </c>
-      <c r="I13">
-        <v>174</v>
-      </c>
-      <c r="J13">
-        <v>105</v>
-      </c>
-      <c r="K13">
-        <v>94</v>
-      </c>
-      <c r="L13">
-        <v>110</v>
-      </c>
-      <c r="M13">
-        <v>63</v>
-      </c>
-      <c r="N13">
-        <v>49</v>
-      </c>
-      <c r="O13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14">
-        <v>457</v>
-      </c>
-      <c r="C14">
-        <v>365</v>
-      </c>
-      <c r="D14">
-        <v>365</v>
-      </c>
-      <c r="E14">
-        <v>457</v>
-      </c>
-      <c r="F14" s="3">
-        <v>133</v>
-      </c>
-      <c r="G14">
-        <v>457</v>
-      </c>
-      <c r="H14">
-        <v>457</v>
-      </c>
-      <c r="I14">
-        <v>197</v>
-      </c>
-      <c r="J14">
-        <v>128</v>
-      </c>
-      <c r="K14">
-        <v>117</v>
-      </c>
-      <c r="L14">
-        <v>133</v>
-      </c>
-      <c r="M14">
-        <v>86</v>
-      </c>
-      <c r="N14">
-        <v>72</v>
-      </c>
-      <c r="O14">
-        <v>37</v>
-      </c>
-      <c r="P14">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15">
-        <v>478</v>
-      </c>
-      <c r="C15">
-        <v>386</v>
-      </c>
-      <c r="D15">
-        <v>386</v>
-      </c>
-      <c r="E15">
-        <v>478</v>
-      </c>
-      <c r="F15" s="3">
-        <v>144</v>
-      </c>
-      <c r="G15">
-        <v>478</v>
-      </c>
-      <c r="H15">
-        <v>478</v>
-      </c>
-      <c r="I15">
-        <v>218</v>
-      </c>
-      <c r="J15">
-        <v>149</v>
-      </c>
-      <c r="K15">
-        <v>138</v>
-      </c>
-      <c r="L15">
-        <v>154</v>
-      </c>
-      <c r="M15">
-        <v>107</v>
-      </c>
-      <c r="N15">
-        <v>93</v>
-      </c>
-      <c r="O15">
-        <v>58</v>
-      </c>
-      <c r="P15">
-        <v>44</v>
-      </c>
-      <c r="Q15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16">
-        <v>508</v>
-      </c>
-      <c r="C16">
-        <v>416</v>
-      </c>
-      <c r="D16">
-        <v>416</v>
-      </c>
-      <c r="E16">
-        <v>508</v>
-      </c>
-      <c r="F16" s="3">
-        <v>158</v>
-      </c>
-      <c r="G16">
-        <v>508</v>
-      </c>
-      <c r="H16">
-        <v>508</v>
-      </c>
-      <c r="I16">
-        <v>248</v>
-      </c>
-      <c r="J16">
-        <v>179</v>
-      </c>
-      <c r="K16">
-        <v>168</v>
-      </c>
-      <c r="L16">
-        <v>184</v>
-      </c>
-      <c r="M16">
-        <v>137</v>
-      </c>
-      <c r="N16">
-        <v>123</v>
-      </c>
-      <c r="O16">
-        <v>88</v>
-      </c>
-      <c r="P16">
-        <v>74</v>
-      </c>
-      <c r="Q16">
-        <v>51</v>
-      </c>
-      <c r="R16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17">
-        <v>527</v>
-      </c>
-      <c r="C17">
-        <v>435</v>
-      </c>
-      <c r="D17">
-        <v>435</v>
-      </c>
-      <c r="E17">
-        <v>527</v>
-      </c>
-      <c r="F17" s="3">
-        <v>168</v>
-      </c>
-      <c r="G17">
-        <v>527</v>
-      </c>
-      <c r="H17">
-        <v>527</v>
-      </c>
-      <c r="I17">
-        <v>267</v>
-      </c>
-      <c r="J17">
-        <v>198</v>
-      </c>
-      <c r="K17">
-        <v>187</v>
-      </c>
-      <c r="L17">
-        <v>203</v>
-      </c>
-      <c r="M17">
-        <v>156</v>
-      </c>
-      <c r="N17">
-        <v>142</v>
-      </c>
-      <c r="O17">
-        <v>107</v>
-      </c>
-      <c r="P17">
-        <v>93</v>
-      </c>
-      <c r="Q17">
-        <v>69</v>
-      </c>
-      <c r="R17">
-        <v>49</v>
-      </c>
-      <c r="S17">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18">
-        <v>540</v>
-      </c>
-      <c r="C18">
-        <v>448</v>
-      </c>
-      <c r="D18">
-        <v>448</v>
-      </c>
-      <c r="E18">
-        <v>540</v>
-      </c>
-      <c r="F18" s="3">
-        <v>174</v>
-      </c>
-      <c r="G18">
-        <v>540</v>
-      </c>
-      <c r="H18">
-        <v>540</v>
-      </c>
-      <c r="I18">
-        <v>280</v>
-      </c>
-      <c r="J18">
-        <v>211</v>
-      </c>
-      <c r="K18">
-        <v>200</v>
-      </c>
-      <c r="L18">
-        <v>216</v>
-      </c>
-      <c r="M18">
-        <v>169</v>
-      </c>
-      <c r="N18">
-        <v>155</v>
-      </c>
-      <c r="O18">
-        <v>120</v>
-      </c>
-      <c r="P18">
-        <v>106</v>
-      </c>
-      <c r="Q18">
-        <v>83</v>
-      </c>
-      <c r="R18">
-        <v>62</v>
-      </c>
-      <c r="S18">
-        <v>32</v>
-      </c>
-      <c r="T18">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>582</v>
-      </c>
-      <c r="C19">
-        <v>490</v>
-      </c>
-      <c r="D19">
-        <v>490</v>
-      </c>
-      <c r="E19">
-        <v>582</v>
-      </c>
-      <c r="F19" s="3">
-        <v>195</v>
-      </c>
-      <c r="G19">
-        <v>582</v>
-      </c>
-      <c r="H19">
-        <v>582</v>
-      </c>
-      <c r="I19">
-        <v>322</v>
-      </c>
-      <c r="J19">
-        <v>253</v>
-      </c>
-      <c r="K19">
-        <v>242</v>
-      </c>
-      <c r="L19">
-        <v>258</v>
-      </c>
-      <c r="M19">
-        <v>211</v>
-      </c>
-      <c r="N19">
-        <v>197</v>
-      </c>
-      <c r="O19">
-        <v>162</v>
-      </c>
-      <c r="P19">
-        <v>148</v>
-      </c>
-      <c r="Q19">
-        <v>124</v>
-      </c>
-      <c r="R19">
-        <v>104</v>
-      </c>
-      <c r="S19">
-        <v>74</v>
-      </c>
-      <c r="T19">
-        <v>55</v>
-      </c>
-      <c r="U19">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-    </row>
-    <row r="33" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="S66" s="2"/>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="S67" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173F68B0-E834-4C4B-9EEC-B98711794196}">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="9" width="23.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>88</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>116</v>
-      </c>
-      <c r="C4">
-        <v>53</v>
-      </c>
-      <c r="D4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>152</v>
-      </c>
-      <c r="C5">
-        <v>89</v>
-      </c>
-      <c r="D5">
-        <v>65</v>
-      </c>
-      <c r="E5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>173</v>
-      </c>
-      <c r="C6">
-        <v>110</v>
-      </c>
-      <c r="D6">
-        <v>85</v>
-      </c>
-      <c r="E6">
-        <v>57</v>
-      </c>
-      <c r="F6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>229</v>
-      </c>
-      <c r="C7">
-        <v>166</v>
-      </c>
-      <c r="D7">
-        <v>142</v>
-      </c>
-      <c r="E7">
-        <v>113</v>
-      </c>
-      <c r="F7">
-        <v>77</v>
-      </c>
-      <c r="G7">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>271</v>
-      </c>
-      <c r="C8">
-        <v>208</v>
-      </c>
-      <c r="D8">
-        <v>183</v>
-      </c>
-      <c r="E8">
-        <v>154</v>
-      </c>
-      <c r="F8">
-        <v>118</v>
-      </c>
-      <c r="G8">
-        <v>98</v>
-      </c>
-      <c r="H8">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2434ACF-B3FC-E74E-8884-182839C01BCF}">
-  <dimension ref="A1:V23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="21" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2">
-        <v>98</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3">
-        <v>145</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3">
-        <v>237</v>
-      </c>
-      <c r="J3">
-        <v>329</v>
-      </c>
-      <c r="K3">
-        <v>340</v>
-      </c>
-      <c r="L3">
-        <v>418</v>
-      </c>
-      <c r="M3">
-        <v>371</v>
-      </c>
-      <c r="N3">
-        <v>385</v>
-      </c>
-      <c r="O3">
-        <v>420</v>
-      </c>
-      <c r="P3">
-        <v>434</v>
-      </c>
-      <c r="Q3">
-        <v>457</v>
-      </c>
-      <c r="R3">
-        <v>478</v>
-      </c>
-      <c r="S3">
-        <v>508</v>
-      </c>
-      <c r="T3">
-        <v>527</v>
-      </c>
-      <c r="U3">
-        <v>540</v>
-      </c>
-      <c r="V3">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>145</v>
-      </c>
-      <c r="C4">
-        <v>98</v>
-      </c>
-      <c r="D4">
-        <v>98</v>
-      </c>
-      <c r="E4">
-        <v>145</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4">
-        <v>145</v>
-      </c>
-      <c r="H4">
-        <v>145</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>237</v>
-      </c>
-      <c r="C6">
-        <v>168</v>
-      </c>
-      <c r="D6">
-        <v>168</v>
-      </c>
-      <c r="E6">
-        <v>237</v>
-      </c>
       <c r="F6">
         <v>69</v>
       </c>
